--- a/controllers/api/reports/new.xlsx
+++ b/controllers/api/reports/new.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="42">
   <si>
     <t>25.01.2021</t>
   </si>
@@ -74,133 +74,76 @@
     <t>կ/գ</t>
   </si>
   <si>
+    <t>Ավազան1</t>
+  </si>
+  <si>
+    <t>1.0000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.00000000000000000000</t>
+  </si>
+  <si>
+    <t>0.00100000000000000000</t>
+  </si>
+  <si>
+    <t>-0.99900000000000000000</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>eepp</t>
+  </si>
+  <si>
+    <t>Ավազան 5</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>ավազան3</t>
+  </si>
+  <si>
     <t>Argisht</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>0.00000000000000000000</t>
-  </si>
-  <si>
-    <t>0.22500000000000000000</t>
-  </si>
-  <si>
-    <t>-69.77500000000000000000</t>
+    <t>poxeci</t>
   </si>
   <si>
     <t>Lina</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>1000.0000</t>
-  </si>
-  <si>
-    <t>250.0000000000000000</t>
-  </si>
-  <si>
-    <t>-750.00000000000000000000</t>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>3-&gt;5</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>ավազան1</t>
+  </si>
+  <si>
+    <t>ավազան2</t>
+  </si>
+  <si>
+    <t>yyyyyyy</t>
   </si>
   <si>
     <t>78</t>
   </si>
   <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>1_1</t>
-  </si>
-  <si>
     <t>anun777aaaappp</t>
   </si>
   <si>
-    <t>eepp</t>
-  </si>
-  <si>
-    <t>poxeci</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>3-&gt;5</t>
-  </si>
-  <si>
-    <t>Ավազան1</t>
-  </si>
-  <si>
-    <t>1.0000</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0.00400000000000000000</t>
-  </si>
-  <si>
-    <t>-1.99600000000000000000</t>
-  </si>
-  <si>
-    <t>yyyyyyy</t>
-  </si>
-  <si>
     <t>Argisht1</t>
-  </si>
-  <si>
-    <t>ավազան1</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>450.0000</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>55.2250000000000000</t>
-  </si>
-  <si>
-    <t>-324.77500000000000000000</t>
-  </si>
-  <si>
-    <t>ավազան2</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>500.0000</t>
-  </si>
-  <si>
-    <t>1000.0000000000000000</t>
-  </si>
-  <si>
-    <t>500.00000000000000000000</t>
-  </si>
-  <si>
-    <t>ավազան3</t>
-  </si>
-  <si>
-    <t>ada</t>
-  </si>
-  <si>
-    <t>Ավազան 5</t>
   </si>
 </sst>
 </file>
@@ -830,46 +773,49 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
       <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
         <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" t="s">
-        <v>20</v>
       </c>
       <c r="P5" t="s">
         <v>20</v>
@@ -878,13 +824,13 @@
         <v>23</v>
       </c>
       <c r="R5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S5" t="s">
         <v>24</v>
       </c>
       <c r="T5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U5" t="s">
         <v>24</v>
@@ -895,64 +841,67 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" t="s">
-        <v>26</v>
-      </c>
       <c r="P6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>22</v>
@@ -960,1143 +909,1137 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
         <v>22</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q7" t="s">
         <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S7" t="s">
         <v>22</v>
       </c>
       <c r="T7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U7" t="s">
         <v>22</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
         <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q8" t="s">
         <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S8" t="s">
         <v>22</v>
       </c>
       <c r="T8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U8" t="s">
         <v>22</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N9" t="s">
         <v>22</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" t="s">
         <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S9" t="s">
         <v>22</v>
       </c>
       <c r="T9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U9" t="s">
         <v>22</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q10" t="s">
         <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S10" t="s">
         <v>22</v>
       </c>
       <c r="T10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U10" t="s">
         <v>22</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
         <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="s">
         <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S11" t="s">
         <v>22</v>
       </c>
       <c r="T11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U11" t="s">
         <v>22</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
         <v>22</v>
       </c>
       <c r="O12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" t="s">
         <v>22</v>
       </c>
       <c r="R12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S12" t="s">
         <v>22</v>
       </c>
       <c r="T12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U12" t="s">
         <v>22</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N13" t="s">
         <v>22</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q13" t="s">
         <v>22</v>
       </c>
       <c r="R13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S13" t="s">
         <v>22</v>
       </c>
       <c r="T13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U13" t="s">
         <v>22</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N14" t="s">
         <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q14" t="s">
         <v>22</v>
       </c>
       <c r="R14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S14" t="s">
         <v>22</v>
       </c>
       <c r="T14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U14" t="s">
         <v>22</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N15" t="s">
         <v>22</v>
       </c>
       <c r="O15" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="Q15" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="R15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S15" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="T15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U15" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N16" t="s">
         <v>22</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="R16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="T16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N17" t="s">
         <v>22</v>
       </c>
       <c r="O17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q17" t="s">
         <v>22</v>
       </c>
       <c r="R17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S17" t="s">
         <v>22</v>
       </c>
       <c r="T17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U17" t="s">
         <v>22</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N18" t="s">
         <v>22</v>
       </c>
       <c r="O18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="s">
         <v>22</v>
       </c>
       <c r="R18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S18" t="s">
         <v>22</v>
       </c>
       <c r="T18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U18" t="s">
         <v>22</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L19" t="s">
         <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
         <v>22</v>
       </c>
       <c r="O19" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="P19" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Q19" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="R19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S19" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="T19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N20" t="s">
         <v>22</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="P20" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="Q20" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="R20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="T20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N21" t="s">
         <v>22</v>
       </c>
       <c r="O21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q21" t="s">
         <v>22</v>
       </c>
       <c r="R21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S21" t="s">
         <v>22</v>
       </c>
       <c r="T21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U21" t="s">
         <v>22</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N22" t="s">
         <v>22</v>
       </c>
       <c r="O22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q22" t="s">
         <v>22</v>
       </c>
       <c r="R22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S22" t="s">
         <v>22</v>
       </c>
       <c r="T22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U22" t="s">
         <v>22</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N23" t="s">
         <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q23" t="s">
         <v>22</v>
       </c>
       <c r="R23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S23" t="s">
         <v>22</v>
       </c>
       <c r="T23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U23" t="s">
         <v>22</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/controllers/api/reports/new.xlsx
+++ b/controllers/api/reports/new.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="42">
   <si>
-    <t>25.01.2021</t>
+    <t>26.01.2021</t>
   </si>
   <si>
     <t>սկզբնական</t>

--- a/controllers/api/reports/new.xlsx
+++ b/controllers/api/reports/new.xlsx
@@ -3,24 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
-  </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="CodeTank">'[1]Support'!$B$2:$B$125</definedName>
-    <definedName name="Species">'[2]Support'!$F$2:$F$10</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="61">
-  <si>
-    <t>25.01.2021</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="90">
+  <si>
+    <t>28.01.2021</t>
   </si>
   <si>
     <t>սկզբնական</t>
@@ -74,133 +67,220 @@
     <t>կ/գ</t>
   </si>
   <si>
-    <t>Argisht</t>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>0.0000</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>0.00000000000000000000</t>
-  </si>
-  <si>
-    <t>0.22500000000000000000</t>
-  </si>
-  <si>
-    <t>-69.77500000000000000000</t>
-  </si>
-  <si>
-    <t>Lina</t>
-  </si>
-  <si>
-    <t>500</t>
+    <t>120</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0.1163</t>
+  </si>
+  <si>
+    <t>46.5000</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>1.9530</t>
+  </si>
+  <si>
+    <t>-93.9308</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0.1099</t>
+  </si>
+  <si>
+    <t>27.4667</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0.5493</t>
+  </si>
+  <si>
+    <t>-53.3408</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>Իշխան2</t>
+  </si>
+  <si>
+    <t>6_2</t>
+  </si>
+  <si>
+    <t>Ոսկե ձկնիկ</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>-290.0000</t>
+  </si>
+  <si>
+    <t>6_1.1</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>540.0000</t>
   </si>
   <si>
     <t>1000.0000</t>
   </si>
   <si>
-    <t>250.0000000000000000</t>
-  </si>
-  <si>
-    <t>-750.00000000000000000000</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>1_1</t>
-  </si>
-  <si>
-    <t>anun777aaaappp</t>
-  </si>
-  <si>
-    <t>eepp</t>
-  </si>
-  <si>
-    <t>poxeci</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>3-&gt;5</t>
-  </si>
-  <si>
-    <t>Ավազան1</t>
-  </si>
-  <si>
-    <t>1.0000</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0.00400000000000000000</t>
-  </si>
-  <si>
-    <t>-1.99600000000000000000</t>
-  </si>
-  <si>
-    <t>yyyyyyy</t>
-  </si>
-  <si>
-    <t>Argisht1</t>
-  </si>
-  <si>
-    <t>ավազան1</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>450.0000</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>55.2250000000000000</t>
-  </si>
-  <si>
-    <t>-324.77500000000000000000</t>
-  </si>
-  <si>
-    <t>ավազան2</t>
-  </si>
-  <si>
     <t>1000</t>
   </si>
   <si>
-    <t>500.0000</t>
-  </si>
-  <si>
-    <t>1000.0000000000000000</t>
-  </si>
-  <si>
-    <t>500.00000000000000000000</t>
-  </si>
-  <si>
-    <t>ավազան3</t>
-  </si>
-  <si>
-    <t>ada</t>
-  </si>
-  <si>
-    <t>Ավազան 5</t>
+    <t>760.0000</t>
+  </si>
+  <si>
+    <t>1_5</t>
+  </si>
+  <si>
+    <t>1_6</t>
+  </si>
+  <si>
+    <t>1_7</t>
+  </si>
+  <si>
+    <t>1_8</t>
+  </si>
+  <si>
+    <t>1_9</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>2_5</t>
+  </si>
+  <si>
+    <t>2_6</t>
+  </si>
+  <si>
+    <t>2_9</t>
+  </si>
+  <si>
+    <t>2_8</t>
+  </si>
+  <si>
+    <t>2_7</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>3_5</t>
+  </si>
+  <si>
+    <t>3_6</t>
+  </si>
+  <si>
+    <t>3_7</t>
+  </si>
+  <si>
+    <t>3_8</t>
+  </si>
+  <si>
+    <t>3_9</t>
+  </si>
+  <si>
+    <t>4_1</t>
+  </si>
+  <si>
+    <t>4_2</t>
+  </si>
+  <si>
+    <t>4_3</t>
+  </si>
+  <si>
+    <t>4_4</t>
   </si>
 </sst>
 </file>
@@ -210,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -220,30 +300,33 @@
     </font>
     <font>
       <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <sz val="7"/>
       <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
       <sz val="8"/>
       <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
       <sz val="9"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
-      <family val="2"/>
       <sz val="9"/>
-      <name val="Times LatArm"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="4">
@@ -255,18 +338,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFAEABAB"/>
+        <bgColor rgb="FFAEABAB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFBDD6EE"/>
+        <bgColor rgb="FFBDD6EE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -277,7 +360,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -288,71 +371,82 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -361,53 +455,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,20 +519,20 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -463,79 +556,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -676,1428 +709,6190 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="12.63"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" customWidth="1"/>
-    <col min="25" max="25" width="11" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.85546875" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.38" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="8.13" customWidth="1"/>
+    <col min="6" max="6" width="7.63" customWidth="1"/>
+    <col min="8" max="15" width="7.63" customWidth="1"/>
+    <col min="16" max="16" width="10.63" customWidth="1"/>
+    <col min="17" max="17" width="7.63" customWidth="1"/>
+    <col min="19" max="19" width="11.38" customWidth="1"/>
+    <col min="20" max="20" width="10.5" customWidth="1"/>
+    <col min="21" max="21" width="7.63" customWidth="1"/>
+    <col min="22" max="22" width="9.88" customWidth="1"/>
+    <col min="23" max="23" width="8.13" customWidth="1"/>
+    <col min="24" max="24" width="7.63" customWidth="1"/>
+    <col min="25" max="25" width="9.63" customWidth="1"/>
+    <col min="26" max="26" width="7.63" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="5"/>
+    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="9" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="11" t="s">
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-    </row>
-    <row r="4" ht="24" customHeight="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="R3" s="11"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="U4" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="V5" s="20"/>
+      <c r="Y5" s="20"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="U6" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="V6" s="20"/>
+      <c r="Y6" s="20"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
         <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P7" t="s">
         <v>19</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
         <v>19</v>
       </c>
       <c r="S7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T7" t="s">
         <v>19</v>
       </c>
       <c r="U7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="V7" s="20"/>
+      <c r="Y7" s="20"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
         <v>19</v>
       </c>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P8" t="s">
         <v>19</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R8" t="s">
         <v>19</v>
       </c>
       <c r="S8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T8" t="s">
         <v>19</v>
       </c>
       <c r="U8" t="s">
-        <v>22</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="V8" s="20"/>
+      <c r="Y8" s="20"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
         <v>19</v>
       </c>
       <c r="N9" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R9" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="S9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T9" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="U9" t="s">
-        <v>22</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="V9" s="20"/>
+      <c r="Y9" s="20"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
         <v>19</v>
       </c>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R10" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="S10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T10" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="U10" t="s">
-        <v>22</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>27</v>
+        <v>47</v>
+      </c>
+      <c r="V10" s="20"/>
+      <c r="Y10" s="20"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
         <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
         <v>19</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P11" t="s">
         <v>19</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R11" t="s">
         <v>19</v>
       </c>
       <c r="S11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T11" t="s">
         <v>19</v>
       </c>
       <c r="U11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="V11" s="20"/>
+      <c r="Y11" s="20"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
         <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
         <v>19</v>
       </c>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P12" t="s">
         <v>19</v>
       </c>
       <c r="Q12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R12" t="s">
         <v>19</v>
       </c>
       <c r="S12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T12" t="s">
         <v>19</v>
       </c>
       <c r="U12" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="V12" s="20"/>
+      <c r="Y12" s="20"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
         <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
         <v>19</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P13" t="s">
         <v>19</v>
       </c>
       <c r="Q13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R13" t="s">
         <v>19</v>
       </c>
       <c r="S13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T13" t="s">
         <v>19</v>
       </c>
       <c r="U13" t="s">
-        <v>22</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>24</v>
+        <v>47</v>
+      </c>
+      <c r="V13" s="20"/>
+      <c r="Y13" s="20"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
         <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
         <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M14" t="s">
         <v>19</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P14" t="s">
         <v>19</v>
       </c>
       <c r="Q14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R14" t="s">
         <v>19</v>
       </c>
       <c r="S14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T14" t="s">
         <v>19</v>
       </c>
       <c r="U14" t="s">
-        <v>22</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="V14" s="20"/>
+      <c r="Y14" s="20"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
         <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s">
         <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s">
         <v>19</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O15" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="Q15" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="R15" t="s">
         <v>19</v>
       </c>
       <c r="S15" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="T15" t="s">
         <v>19</v>
       </c>
       <c r="U15" t="s">
-        <v>44</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="V15" s="20"/>
+      <c r="Y15" s="20"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
         <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
         <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s">
         <v>19</v>
       </c>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="Q16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="R16" t="s">
         <v>19</v>
       </c>
       <c r="S16" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="T16" t="s">
         <v>19</v>
       </c>
       <c r="U16" t="s">
-        <v>44</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="V16" s="20"/>
+      <c r="Y16" s="20"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
         <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s">
         <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M17" t="s">
         <v>19</v>
       </c>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P17" t="s">
         <v>19</v>
       </c>
       <c r="Q17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R17" t="s">
         <v>19</v>
       </c>
       <c r="S17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T17" t="s">
         <v>19</v>
       </c>
       <c r="U17" t="s">
-        <v>22</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="V17" s="20"/>
+      <c r="Y17" s="20"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s">
         <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s">
         <v>19</v>
       </c>
       <c r="N18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P18" t="s">
         <v>19</v>
       </c>
       <c r="Q18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R18" t="s">
         <v>19</v>
       </c>
       <c r="S18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T18" t="s">
         <v>19</v>
       </c>
       <c r="U18" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="V18" s="20"/>
+      <c r="Y18" s="20"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
       <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" t="s">
         <v>47</v>
       </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="V19" s="20"/>
+      <c r="Y19" s="20"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="I19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>51</v>
-      </c>
-      <c r="R19" t="s">
-        <v>19</v>
-      </c>
-      <c r="S19" t="s">
-        <v>52</v>
-      </c>
-      <c r="T19" t="s">
-        <v>19</v>
-      </c>
-      <c r="U19" t="s">
-        <v>52</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
+      <c r="C20" t="s">
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M20" t="s">
         <v>19</v>
       </c>
       <c r="N20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="P20" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="Q20" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="R20" t="s">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="T20" t="s">
         <v>19</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="V20" s="20"/>
+      <c r="Y20" s="20"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s">
         <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M21" t="s">
         <v>19</v>
       </c>
       <c r="N21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P21" t="s">
         <v>19</v>
       </c>
       <c r="Q21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R21" t="s">
         <v>19</v>
       </c>
       <c r="S21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T21" t="s">
         <v>19</v>
       </c>
       <c r="U21" t="s">
-        <v>22</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="V21" s="20"/>
+      <c r="Y21" s="20"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s">
         <v>19</v>
       </c>
       <c r="L22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M22" t="s">
         <v>19</v>
       </c>
       <c r="N22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P22" t="s">
         <v>19</v>
       </c>
       <c r="Q22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R22" t="s">
         <v>19</v>
       </c>
       <c r="S22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T22" t="s">
         <v>19</v>
       </c>
       <c r="U22" t="s">
-        <v>22</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="V22" s="20"/>
+      <c r="Y22" s="20"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
         <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s">
         <v>19</v>
       </c>
       <c r="L23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M23" t="s">
         <v>19</v>
       </c>
       <c r="N23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P23" t="s">
         <v>19</v>
       </c>
       <c r="Q23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R23" t="s">
         <v>19</v>
       </c>
       <c r="S23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T23" t="s">
         <v>19</v>
       </c>
       <c r="U23" t="s">
-        <v>22</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="V23" s="20"/>
+      <c r="Y23" s="20"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" t="s">
+        <v>47</v>
+      </c>
+      <c r="V24" s="20"/>
+      <c r="Y24" s="20"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" t="s">
+        <v>19</v>
+      </c>
+      <c r="S25" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" t="s">
+        <v>19</v>
+      </c>
+      <c r="U25" t="s">
+        <v>47</v>
+      </c>
+      <c r="V25" s="20"/>
+      <c r="Y25" s="20"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" t="s">
+        <v>19</v>
+      </c>
+      <c r="S26" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26" t="s">
+        <v>47</v>
+      </c>
+      <c r="V26" s="20"/>
+      <c r="Y26" s="20"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" t="s">
+        <v>19</v>
+      </c>
+      <c r="O27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" t="s">
+        <v>19</v>
+      </c>
+      <c r="U27" t="s">
+        <v>47</v>
+      </c>
+      <c r="V27" s="20"/>
+      <c r="Y27" s="20"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" t="s">
+        <v>19</v>
+      </c>
+      <c r="S28" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" t="s">
+        <v>19</v>
+      </c>
+      <c r="U28" t="s">
+        <v>47</v>
+      </c>
+      <c r="V28" s="20"/>
+      <c r="Y28" s="20"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" t="s">
+        <v>19</v>
+      </c>
+      <c r="S29" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" t="s">
+        <v>19</v>
+      </c>
+      <c r="U29" t="s">
+        <v>47</v>
+      </c>
+      <c r="V29" s="20"/>
+      <c r="Y29" s="20"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" t="s">
+        <v>19</v>
+      </c>
+      <c r="O30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" t="s">
+        <v>19</v>
+      </c>
+      <c r="S30" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" t="s">
+        <v>19</v>
+      </c>
+      <c r="U30" t="s">
+        <v>47</v>
+      </c>
+      <c r="V30" s="20"/>
+      <c r="Y30" s="20"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" t="s">
+        <v>19</v>
+      </c>
+      <c r="S31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" t="s">
+        <v>19</v>
+      </c>
+      <c r="U31" t="s">
+        <v>47</v>
+      </c>
+      <c r="V31" s="20"/>
+      <c r="Y31" s="20"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" t="s">
+        <v>19</v>
+      </c>
+      <c r="S32" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" t="s">
+        <v>19</v>
+      </c>
+      <c r="U32" t="s">
+        <v>47</v>
+      </c>
+      <c r="V32" s="20"/>
+      <c r="Y32" s="20"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" t="s">
+        <v>20</v>
+      </c>
+      <c r="T33" t="s">
+        <v>19</v>
+      </c>
+      <c r="U33" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="20"/>
+      <c r="Y33" s="20"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" t="s">
+        <v>19</v>
+      </c>
+      <c r="S34" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" t="s">
+        <v>19</v>
+      </c>
+      <c r="U34" t="s">
+        <v>47</v>
+      </c>
+      <c r="V34" s="20"/>
+      <c r="Y34" s="20"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" t="s">
+        <v>19</v>
+      </c>
+      <c r="S35" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" t="s">
+        <v>19</v>
+      </c>
+      <c r="U35" t="s">
+        <v>47</v>
+      </c>
+      <c r="V35" s="20"/>
+      <c r="Y35" s="20"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" t="s">
+        <v>19</v>
+      </c>
+      <c r="S36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" t="s">
+        <v>19</v>
+      </c>
+      <c r="U36" t="s">
+        <v>47</v>
+      </c>
+      <c r="V36" s="20"/>
+      <c r="Y36" s="20"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" t="s">
+        <v>19</v>
+      </c>
+      <c r="S37" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" t="s">
+        <v>19</v>
+      </c>
+      <c r="U37" t="s">
+        <v>47</v>
+      </c>
+      <c r="V37" s="20"/>
+      <c r="Y37" s="20"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V38" s="20"/>
+      <c r="Y38" s="20"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V39" s="20"/>
+      <c r="Y39" s="20"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V40" s="20"/>
+      <c r="Y40" s="20"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V41" s="20"/>
+      <c r="Y41" s="20"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V42" s="20"/>
+      <c r="Y42" s="20"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V43" s="20"/>
+      <c r="Y43" s="20"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V44" s="20"/>
+      <c r="Y44" s="20"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V45" s="20"/>
+      <c r="Y45" s="20"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V46" s="20"/>
+      <c r="Y46" s="20"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V47" s="20"/>
+      <c r="Y47" s="20"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V48" s="20"/>
+      <c r="Y48" s="20"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V49" s="20"/>
+      <c r="Y49" s="20"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V50" s="20"/>
+      <c r="Y50" s="20"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V51" s="20"/>
+      <c r="Y51" s="20"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V52" s="20"/>
+      <c r="Y52" s="20"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V53" s="20"/>
+      <c r="Y53" s="20"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V54" s="20"/>
+      <c r="Y54" s="20"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V55" s="20"/>
+      <c r="Y55" s="20"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V56" s="20"/>
+      <c r="Y56" s="20"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V57" s="20"/>
+      <c r="Y57" s="20"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V58" s="20"/>
+      <c r="Y58" s="20"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V59" s="20"/>
+      <c r="Y59" s="20"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V60" s="20"/>
+      <c r="Y60" s="20"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V61" s="20"/>
+      <c r="Y61" s="20"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V62" s="20"/>
+      <c r="Y62" s="20"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V63" s="20"/>
+      <c r="Y63" s="20"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V64" s="20"/>
+      <c r="Y64" s="20"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V65" s="20"/>
+      <c r="Y65" s="20"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V66" s="20"/>
+      <c r="Y66" s="20"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V67" s="20"/>
+      <c r="Y67" s="20"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V68" s="20"/>
+      <c r="Y68" s="20"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V69" s="20"/>
+      <c r="Y69" s="20"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V70" s="20"/>
+      <c r="Y70" s="20"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V71" s="20"/>
+      <c r="Y71" s="20"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V72" s="20"/>
+      <c r="Y72" s="20"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V73" s="20"/>
+      <c r="Y73" s="20"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V74" s="20"/>
+      <c r="Y74" s="20"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V75" s="20"/>
+      <c r="Y75" s="20"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V76" s="20"/>
+      <c r="Y76" s="20"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V77" s="20"/>
+      <c r="Y77" s="20"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V78" s="20"/>
+      <c r="Y78" s="20"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V79" s="20"/>
+      <c r="Y79" s="20"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V80" s="20"/>
+      <c r="Y80" s="20"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V81" s="20"/>
+      <c r="Y81" s="20"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V82" s="20"/>
+      <c r="Y82" s="20"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V83" s="20"/>
+      <c r="Y83" s="20"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V84" s="20"/>
+      <c r="Y84" s="20"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V85" s="20"/>
+      <c r="Y85" s="20"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V86" s="20"/>
+      <c r="Y86" s="20"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V87" s="20"/>
+      <c r="Y87" s="20"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V88" s="20"/>
+      <c r="Y88" s="20"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V89" s="20"/>
+      <c r="Y89" s="20"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V90" s="20"/>
+      <c r="Y90" s="20"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V91" s="20"/>
+      <c r="Y91" s="20"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V92" s="20"/>
+      <c r="Y92" s="20"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V93" s="20"/>
+      <c r="Y93" s="20"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V94" s="20"/>
+      <c r="Y94" s="20"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V95" s="20"/>
+      <c r="Y95" s="20"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V96" s="20"/>
+      <c r="Y96" s="20"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V97" s="20"/>
+      <c r="Y97" s="20"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V98" s="20"/>
+      <c r="Y98" s="20"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V99" s="20"/>
+      <c r="Y99" s="20"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V100" s="20"/>
+      <c r="Y100" s="20"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V101" s="20"/>
+      <c r="Y101" s="20"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V102" s="20"/>
+      <c r="Y102" s="20"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V103" s="20"/>
+      <c r="Y103" s="20"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V104" s="20"/>
+      <c r="Y104" s="20"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V105" s="20"/>
+      <c r="Y105" s="20"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V106" s="20"/>
+      <c r="Y106" s="20"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V107" s="20"/>
+      <c r="Y107" s="20"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V108" s="20"/>
+      <c r="Y108" s="20"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V109" s="20"/>
+      <c r="Y109" s="20"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V110" s="20"/>
+      <c r="Y110" s="20"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V111" s="20"/>
+      <c r="Y111" s="20"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V112" s="20"/>
+      <c r="Y112" s="20"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V113" s="20"/>
+      <c r="Y113" s="20"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V114" s="20"/>
+      <c r="Y114" s="20"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V115" s="20"/>
+      <c r="Y115" s="20"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V116" s="20"/>
+      <c r="Y116" s="20"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V117" s="20"/>
+      <c r="Y117" s="20"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V118" s="20"/>
+      <c r="Y118" s="20"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V119" s="20"/>
+      <c r="Y119" s="20"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V120" s="20"/>
+      <c r="Y120" s="20"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V121" s="20"/>
+      <c r="Y121" s="20"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V122" s="20"/>
+      <c r="Y122" s="20"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V123" s="20"/>
+      <c r="Y123" s="20"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V124" s="20"/>
+      <c r="Y124" s="20"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V125" s="20"/>
+      <c r="Y125" s="20"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V126" s="20"/>
+      <c r="Y126" s="20"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V127" s="20"/>
+      <c r="Y127" s="20"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V128" s="20"/>
+      <c r="Y128" s="20"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V129" s="20"/>
+      <c r="Y129" s="20"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V130" s="20"/>
+      <c r="Y130" s="20"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V131" s="20"/>
+      <c r="Y131" s="20"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V132" s="20"/>
+      <c r="Y132" s="20"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V133" s="20"/>
+      <c r="Y133" s="20"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V134" s="20"/>
+      <c r="Y134" s="20"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V135" s="20"/>
+      <c r="Y135" s="20"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V136" s="20"/>
+      <c r="Y136" s="20"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V137" s="20"/>
+      <c r="Y137" s="20"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V138" s="20"/>
+      <c r="Y138" s="20"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V139" s="20"/>
+      <c r="Y139" s="20"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V140" s="20"/>
+      <c r="Y140" s="20"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V141" s="20"/>
+      <c r="Y141" s="20"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V142" s="20"/>
+      <c r="Y142" s="20"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V143" s="20"/>
+      <c r="Y143" s="20"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V144" s="20"/>
+      <c r="Y144" s="20"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V145" s="20"/>
+      <c r="Y145" s="20"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V146" s="20"/>
+      <c r="Y146" s="20"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V147" s="20"/>
+      <c r="Y147" s="20"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V148" s="20"/>
+      <c r="Y148" s="20"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V149" s="20"/>
+      <c r="Y149" s="20"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V150" s="20"/>
+      <c r="Y150" s="20"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V151" s="20"/>
+      <c r="Y151" s="20"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V152" s="20"/>
+      <c r="Y152" s="20"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V153" s="20"/>
+      <c r="Y153" s="20"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V154" s="20"/>
+      <c r="Y154" s="20"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V155" s="20"/>
+      <c r="Y155" s="20"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V156" s="20"/>
+      <c r="Y156" s="20"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V157" s="20"/>
+      <c r="Y157" s="20"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V158" s="20"/>
+      <c r="Y158" s="20"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V159" s="20"/>
+      <c r="Y159" s="20"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V160" s="20"/>
+      <c r="Y160" s="20"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V161" s="20"/>
+      <c r="Y161" s="20"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V162" s="20"/>
+      <c r="Y162" s="20"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V163" s="20"/>
+      <c r="Y163" s="20"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V164" s="20"/>
+      <c r="Y164" s="20"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V165" s="20"/>
+      <c r="Y165" s="20"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V166" s="20"/>
+      <c r="Y166" s="20"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V167" s="20"/>
+      <c r="Y167" s="20"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V168" s="20"/>
+      <c r="Y168" s="20"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V169" s="20"/>
+      <c r="Y169" s="20"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V170" s="20"/>
+      <c r="Y170" s="20"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V171" s="20"/>
+      <c r="Y171" s="20"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V172" s="20"/>
+      <c r="Y172" s="20"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V173" s="20"/>
+      <c r="Y173" s="20"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V174" s="20"/>
+      <c r="Y174" s="20"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V175" s="20"/>
+      <c r="Y175" s="20"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V176" s="20"/>
+      <c r="Y176" s="20"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V177" s="20"/>
+      <c r="Y177" s="20"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V178" s="20"/>
+      <c r="Y178" s="20"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V179" s="20"/>
+      <c r="Y179" s="20"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V180" s="20"/>
+      <c r="Y180" s="20"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V181" s="20"/>
+      <c r="Y181" s="20"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V182" s="20"/>
+      <c r="Y182" s="20"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V183" s="20"/>
+      <c r="Y183" s="20"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V184" s="20"/>
+      <c r="Y184" s="20"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V185" s="20"/>
+      <c r="Y185" s="20"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V186" s="20"/>
+      <c r="Y186" s="20"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V187" s="20"/>
+      <c r="Y187" s="20"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V188" s="20"/>
+      <c r="Y188" s="20"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V189" s="20"/>
+      <c r="Y189" s="20"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V190" s="20"/>
+      <c r="Y190" s="20"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V191" s="20"/>
+      <c r="Y191" s="20"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V192" s="20"/>
+      <c r="Y192" s="20"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V193" s="20"/>
+      <c r="Y193" s="20"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V194" s="20"/>
+      <c r="Y194" s="20"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V195" s="20"/>
+      <c r="Y195" s="20"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V196" s="20"/>
+      <c r="Y196" s="20"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V197" s="20"/>
+      <c r="Y197" s="20"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V198" s="20"/>
+      <c r="Y198" s="20"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V199" s="20"/>
+      <c r="Y199" s="20"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V200" s="20"/>
+      <c r="Y200" s="20"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V201" s="20"/>
+      <c r="Y201" s="20"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V202" s="20"/>
+      <c r="Y202" s="20"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V203" s="20"/>
+      <c r="Y203" s="20"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V204" s="20"/>
+      <c r="Y204" s="20"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V205" s="20"/>
+      <c r="Y205" s="20"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V206" s="20"/>
+      <c r="Y206" s="20"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V207" s="20"/>
+      <c r="Y207" s="20"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V208" s="20"/>
+      <c r="Y208" s="20"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V209" s="20"/>
+      <c r="Y209" s="20"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V210" s="20"/>
+      <c r="Y210" s="20"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V211" s="20"/>
+      <c r="Y211" s="20"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V212" s="20"/>
+      <c r="Y212" s="20"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V213" s="20"/>
+      <c r="Y213" s="20"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V214" s="20"/>
+      <c r="Y214" s="20"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V215" s="20"/>
+      <c r="Y215" s="20"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V216" s="20"/>
+      <c r="Y216" s="20"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V217" s="20"/>
+      <c r="Y217" s="20"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V218" s="20"/>
+      <c r="Y218" s="20"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V219" s="20"/>
+      <c r="Y219" s="20"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V220" s="20"/>
+      <c r="Y220" s="20"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V221" s="20"/>
+      <c r="Y221" s="20"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V222" s="20"/>
+      <c r="Y222" s="20"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V223" s="20"/>
+      <c r="Y223" s="20"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V224" s="20"/>
+      <c r="Y224" s="20"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V225" s="20"/>
+      <c r="Y225" s="20"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V226" s="20"/>
+      <c r="Y226" s="20"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V227" s="20"/>
+      <c r="Y227" s="20"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V228" s="20"/>
+      <c r="Y228" s="20"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V229" s="20"/>
+      <c r="Y229" s="20"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V230" s="20"/>
+      <c r="Y230" s="20"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V231" s="20"/>
+      <c r="Y231" s="20"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V232" s="20"/>
+      <c r="Y232" s="20"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V233" s="20"/>
+      <c r="Y233" s="20"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V234" s="20"/>
+      <c r="Y234" s="20"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V235" s="20"/>
+      <c r="Y235" s="20"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V236" s="20"/>
+      <c r="Y236" s="20"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V237" s="20"/>
+      <c r="Y237" s="20"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V238" s="20"/>
+      <c r="Y238" s="20"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V239" s="20"/>
+      <c r="Y239" s="20"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V240" s="20"/>
+      <c r="Y240" s="20"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V241" s="20"/>
+      <c r="Y241" s="20"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V242" s="20"/>
+      <c r="Y242" s="20"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V243" s="20"/>
+      <c r="Y243" s="20"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V244" s="20"/>
+      <c r="Y244" s="20"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V245" s="20"/>
+      <c r="Y245" s="20"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V246" s="20"/>
+      <c r="Y246" s="20"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V247" s="20"/>
+      <c r="Y247" s="20"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V248" s="20"/>
+      <c r="Y248" s="20"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V249" s="20"/>
+      <c r="Y249" s="20"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V250" s="20"/>
+      <c r="Y250" s="20"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V251" s="20"/>
+      <c r="Y251" s="20"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V252" s="20"/>
+      <c r="Y252" s="20"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V253" s="20"/>
+      <c r="Y253" s="20"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V254" s="20"/>
+      <c r="Y254" s="20"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V255" s="20"/>
+      <c r="Y255" s="20"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V256" s="20"/>
+      <c r="Y256" s="20"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V257" s="20"/>
+      <c r="Y257" s="20"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V258" s="20"/>
+      <c r="Y258" s="20"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V259" s="20"/>
+      <c r="Y259" s="20"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V260" s="20"/>
+      <c r="Y260" s="20"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V261" s="20"/>
+      <c r="Y261" s="20"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V262" s="20"/>
+      <c r="Y262" s="20"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V263" s="20"/>
+      <c r="Y263" s="20"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V264" s="20"/>
+      <c r="Y264" s="20"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V265" s="20"/>
+      <c r="Y265" s="20"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V266" s="20"/>
+      <c r="Y266" s="20"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V267" s="20"/>
+      <c r="Y267" s="20"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V268" s="20"/>
+      <c r="Y268" s="20"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V269" s="20"/>
+      <c r="Y269" s="20"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V270" s="20"/>
+      <c r="Y270" s="20"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V271" s="20"/>
+      <c r="Y271" s="20"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V272" s="20"/>
+      <c r="Y272" s="20"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V273" s="20"/>
+      <c r="Y273" s="20"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V274" s="20"/>
+      <c r="Y274" s="20"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V275" s="20"/>
+      <c r="Y275" s="20"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V276" s="20"/>
+      <c r="Y276" s="20"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V277" s="20"/>
+      <c r="Y277" s="20"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V278" s="20"/>
+      <c r="Y278" s="20"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V279" s="20"/>
+      <c r="Y279" s="20"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V280" s="20"/>
+      <c r="Y280" s="20"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V281" s="20"/>
+      <c r="Y281" s="20"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V282" s="20"/>
+      <c r="Y282" s="20"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V283" s="20"/>
+      <c r="Y283" s="20"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V284" s="20"/>
+      <c r="Y284" s="20"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V285" s="20"/>
+      <c r="Y285" s="20"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V286" s="20"/>
+      <c r="Y286" s="20"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V287" s="20"/>
+      <c r="Y287" s="20"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V288" s="20"/>
+      <c r="Y288" s="20"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V289" s="20"/>
+      <c r="Y289" s="20"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V290" s="20"/>
+      <c r="Y290" s="20"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V291" s="20"/>
+      <c r="Y291" s="20"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V292" s="20"/>
+      <c r="Y292" s="20"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V293" s="20"/>
+      <c r="Y293" s="20"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V294" s="20"/>
+      <c r="Y294" s="20"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V295" s="20"/>
+      <c r="Y295" s="20"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V296" s="20"/>
+      <c r="Y296" s="20"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V297" s="20"/>
+      <c r="Y297" s="20"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V298" s="20"/>
+      <c r="Y298" s="20"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V299" s="20"/>
+      <c r="Y299" s="20"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V300" s="20"/>
+      <c r="Y300" s="20"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V301" s="20"/>
+      <c r="Y301" s="20"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V302" s="20"/>
+      <c r="Y302" s="20"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V303" s="20"/>
+      <c r="Y303" s="20"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V304" s="20"/>
+      <c r="Y304" s="20"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V305" s="20"/>
+      <c r="Y305" s="20"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V306" s="20"/>
+      <c r="Y306" s="20"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V307" s="20"/>
+      <c r="Y307" s="20"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V308" s="20"/>
+      <c r="Y308" s="20"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V309" s="20"/>
+      <c r="Y309" s="20"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V310" s="20"/>
+      <c r="Y310" s="20"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V311" s="20"/>
+      <c r="Y311" s="20"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V312" s="20"/>
+      <c r="Y312" s="20"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V313" s="20"/>
+      <c r="Y313" s="20"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V314" s="20"/>
+      <c r="Y314" s="20"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V315" s="20"/>
+      <c r="Y315" s="20"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V316" s="20"/>
+      <c r="Y316" s="20"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V317" s="20"/>
+      <c r="Y317" s="20"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V318" s="20"/>
+      <c r="Y318" s="20"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V319" s="20"/>
+      <c r="Y319" s="20"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V320" s="20"/>
+      <c r="Y320" s="20"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V321" s="20"/>
+      <c r="Y321" s="20"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V322" s="20"/>
+      <c r="Y322" s="20"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V323" s="20"/>
+      <c r="Y323" s="20"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V324" s="20"/>
+      <c r="Y324" s="20"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V325" s="20"/>
+      <c r="Y325" s="20"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V326" s="20"/>
+      <c r="Y326" s="20"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V327" s="20"/>
+      <c r="Y327" s="20"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V328" s="20"/>
+      <c r="Y328" s="20"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V329" s="20"/>
+      <c r="Y329" s="20"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V330" s="20"/>
+      <c r="Y330" s="20"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V331" s="20"/>
+      <c r="Y331" s="20"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V332" s="20"/>
+      <c r="Y332" s="20"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V333" s="20"/>
+      <c r="Y333" s="20"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V334" s="20"/>
+      <c r="Y334" s="20"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V335" s="20"/>
+      <c r="Y335" s="20"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V336" s="20"/>
+      <c r="Y336" s="20"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V337" s="20"/>
+      <c r="Y337" s="20"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V338" s="20"/>
+      <c r="Y338" s="20"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V339" s="20"/>
+      <c r="Y339" s="20"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V340" s="20"/>
+      <c r="Y340" s="20"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V341" s="20"/>
+      <c r="Y341" s="20"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V342" s="20"/>
+      <c r="Y342" s="20"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V343" s="20"/>
+      <c r="Y343" s="20"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V344" s="20"/>
+      <c r="Y344" s="20"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V345" s="20"/>
+      <c r="Y345" s="20"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V346" s="20"/>
+      <c r="Y346" s="20"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V347" s="20"/>
+      <c r="Y347" s="20"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V348" s="20"/>
+      <c r="Y348" s="20"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V349" s="20"/>
+      <c r="Y349" s="20"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V350" s="20"/>
+      <c r="Y350" s="20"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V351" s="20"/>
+      <c r="Y351" s="20"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V352" s="20"/>
+      <c r="Y352" s="20"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V353" s="20"/>
+      <c r="Y353" s="20"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V354" s="20"/>
+      <c r="Y354" s="20"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V355" s="20"/>
+      <c r="Y355" s="20"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V356" s="20"/>
+      <c r="Y356" s="20"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V357" s="20"/>
+      <c r="Y357" s="20"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V358" s="20"/>
+      <c r="Y358" s="20"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V359" s="20"/>
+      <c r="Y359" s="20"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V360" s="20"/>
+      <c r="Y360" s="20"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V361" s="20"/>
+      <c r="Y361" s="20"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V362" s="20"/>
+      <c r="Y362" s="20"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V363" s="20"/>
+      <c r="Y363" s="20"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V364" s="20"/>
+      <c r="Y364" s="20"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V365" s="20"/>
+      <c r="Y365" s="20"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V366" s="20"/>
+      <c r="Y366" s="20"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V367" s="20"/>
+      <c r="Y367" s="20"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V368" s="20"/>
+      <c r="Y368" s="20"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V369" s="20"/>
+      <c r="Y369" s="20"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V370" s="20"/>
+      <c r="Y370" s="20"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V371" s="20"/>
+      <c r="Y371" s="20"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V372" s="20"/>
+      <c r="Y372" s="20"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V373" s="20"/>
+      <c r="Y373" s="20"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V374" s="20"/>
+      <c r="Y374" s="20"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V375" s="20"/>
+      <c r="Y375" s="20"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V376" s="20"/>
+      <c r="Y376" s="20"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V377" s="20"/>
+      <c r="Y377" s="20"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V378" s="20"/>
+      <c r="Y378" s="20"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V379" s="20"/>
+      <c r="Y379" s="20"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V380" s="20"/>
+      <c r="Y380" s="20"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V381" s="20"/>
+      <c r="Y381" s="20"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V382" s="20"/>
+      <c r="Y382" s="20"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V383" s="20"/>
+      <c r="Y383" s="20"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V384" s="20"/>
+      <c r="Y384" s="20"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V385" s="20"/>
+      <c r="Y385" s="20"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V386" s="20"/>
+      <c r="Y386" s="20"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V387" s="20"/>
+      <c r="Y387" s="20"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V388" s="20"/>
+      <c r="Y388" s="20"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V389" s="20"/>
+      <c r="Y389" s="20"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V390" s="20"/>
+      <c r="Y390" s="20"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V391" s="20"/>
+      <c r="Y391" s="20"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V392" s="20"/>
+      <c r="Y392" s="20"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V393" s="20"/>
+      <c r="Y393" s="20"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V394" s="20"/>
+      <c r="Y394" s="20"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V395" s="20"/>
+      <c r="Y395" s="20"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V396" s="20"/>
+      <c r="Y396" s="20"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V397" s="20"/>
+      <c r="Y397" s="20"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V398" s="20"/>
+      <c r="Y398" s="20"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V399" s="20"/>
+      <c r="Y399" s="20"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V400" s="20"/>
+      <c r="Y400" s="20"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V401" s="20"/>
+      <c r="Y401" s="20"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V402" s="20"/>
+      <c r="Y402" s="20"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V403" s="20"/>
+      <c r="Y403" s="20"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V404" s="20"/>
+      <c r="Y404" s="20"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V405" s="20"/>
+      <c r="Y405" s="20"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V406" s="20"/>
+      <c r="Y406" s="20"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V407" s="20"/>
+      <c r="Y407" s="20"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V408" s="20"/>
+      <c r="Y408" s="20"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V409" s="20"/>
+      <c r="Y409" s="20"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V410" s="20"/>
+      <c r="Y410" s="20"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V411" s="20"/>
+      <c r="Y411" s="20"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V412" s="20"/>
+      <c r="Y412" s="20"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V413" s="20"/>
+      <c r="Y413" s="20"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V414" s="20"/>
+      <c r="Y414" s="20"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V415" s="20"/>
+      <c r="Y415" s="20"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V416" s="20"/>
+      <c r="Y416" s="20"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V417" s="20"/>
+      <c r="Y417" s="20"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V418" s="20"/>
+      <c r="Y418" s="20"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V419" s="20"/>
+      <c r="Y419" s="20"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V420" s="20"/>
+      <c r="Y420" s="20"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V421" s="20"/>
+      <c r="Y421" s="20"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V422" s="20"/>
+      <c r="Y422" s="20"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V423" s="20"/>
+      <c r="Y423" s="20"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V424" s="20"/>
+      <c r="Y424" s="20"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V425" s="20"/>
+      <c r="Y425" s="20"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V426" s="20"/>
+      <c r="Y426" s="20"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V427" s="20"/>
+      <c r="Y427" s="20"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V428" s="20"/>
+      <c r="Y428" s="20"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V429" s="20"/>
+      <c r="Y429" s="20"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V430" s="20"/>
+      <c r="Y430" s="20"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V431" s="20"/>
+      <c r="Y431" s="20"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V432" s="20"/>
+      <c r="Y432" s="20"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V433" s="20"/>
+      <c r="Y433" s="20"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V434" s="20"/>
+      <c r="Y434" s="20"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V435" s="20"/>
+      <c r="Y435" s="20"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V436" s="20"/>
+      <c r="Y436" s="20"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V437" s="20"/>
+      <c r="Y437" s="20"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V438" s="20"/>
+      <c r="Y438" s="20"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V439" s="20"/>
+      <c r="Y439" s="20"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V440" s="20"/>
+      <c r="Y440" s="20"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V441" s="20"/>
+      <c r="Y441" s="20"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V442" s="20"/>
+      <c r="Y442" s="20"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V443" s="20"/>
+      <c r="Y443" s="20"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V444" s="20"/>
+      <c r="Y444" s="20"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V445" s="20"/>
+      <c r="Y445" s="20"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V446" s="20"/>
+      <c r="Y446" s="20"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V447" s="20"/>
+      <c r="Y447" s="20"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V448" s="20"/>
+      <c r="Y448" s="20"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V449" s="20"/>
+      <c r="Y449" s="20"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V450" s="20"/>
+      <c r="Y450" s="20"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V451" s="20"/>
+      <c r="Y451" s="20"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V452" s="20"/>
+      <c r="Y452" s="20"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V453" s="20"/>
+      <c r="Y453" s="20"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V454" s="20"/>
+      <c r="Y454" s="20"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V455" s="20"/>
+      <c r="Y455" s="20"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V456" s="20"/>
+      <c r="Y456" s="20"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V457" s="20"/>
+      <c r="Y457" s="20"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V458" s="20"/>
+      <c r="Y458" s="20"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V459" s="20"/>
+      <c r="Y459" s="20"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V460" s="20"/>
+      <c r="Y460" s="20"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V461" s="20"/>
+      <c r="Y461" s="20"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V462" s="20"/>
+      <c r="Y462" s="20"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V463" s="20"/>
+      <c r="Y463" s="20"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V464" s="20"/>
+      <c r="Y464" s="20"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V465" s="20"/>
+      <c r="Y465" s="20"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V466" s="20"/>
+      <c r="Y466" s="20"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V467" s="20"/>
+      <c r="Y467" s="20"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V468" s="20"/>
+      <c r="Y468" s="20"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V469" s="20"/>
+      <c r="Y469" s="20"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V470" s="20"/>
+      <c r="Y470" s="20"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V471" s="20"/>
+      <c r="Y471" s="20"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V472" s="20"/>
+      <c r="Y472" s="20"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V473" s="20"/>
+      <c r="Y473" s="20"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V474" s="20"/>
+      <c r="Y474" s="20"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V475" s="20"/>
+      <c r="Y475" s="20"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V476" s="20"/>
+      <c r="Y476" s="20"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V477" s="20"/>
+      <c r="Y477" s="20"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V478" s="20"/>
+      <c r="Y478" s="20"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V479" s="20"/>
+      <c r="Y479" s="20"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V480" s="20"/>
+      <c r="Y480" s="20"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V481" s="20"/>
+      <c r="Y481" s="20"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V482" s="20"/>
+      <c r="Y482" s="20"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V483" s="20"/>
+      <c r="Y483" s="20"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V484" s="20"/>
+      <c r="Y484" s="20"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V485" s="20"/>
+      <c r="Y485" s="20"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V486" s="20"/>
+      <c r="Y486" s="20"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V487" s="20"/>
+      <c r="Y487" s="20"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V488" s="20"/>
+      <c r="Y488" s="20"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V489" s="20"/>
+      <c r="Y489" s="20"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V490" s="20"/>
+      <c r="Y490" s="20"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V491" s="20"/>
+      <c r="Y491" s="20"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V492" s="20"/>
+      <c r="Y492" s="20"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V493" s="20"/>
+      <c r="Y493" s="20"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V494" s="20"/>
+      <c r="Y494" s="20"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V495" s="20"/>
+      <c r="Y495" s="20"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V496" s="20"/>
+      <c r="Y496" s="20"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V497" s="20"/>
+      <c r="Y497" s="20"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V498" s="20"/>
+      <c r="Y498" s="20"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V499" s="20"/>
+      <c r="Y499" s="20"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V500" s="20"/>
+      <c r="Y500" s="20"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V501" s="20"/>
+      <c r="Y501" s="20"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V502" s="20"/>
+      <c r="Y502" s="20"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V503" s="20"/>
+      <c r="Y503" s="20"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V504" s="20"/>
+      <c r="Y504" s="20"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V505" s="20"/>
+      <c r="Y505" s="20"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V506" s="20"/>
+      <c r="Y506" s="20"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V507" s="20"/>
+      <c r="Y507" s="20"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V508" s="20"/>
+      <c r="Y508" s="20"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V509" s="20"/>
+      <c r="Y509" s="20"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V510" s="20"/>
+      <c r="Y510" s="20"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V511" s="20"/>
+      <c r="Y511" s="20"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V512" s="20"/>
+      <c r="Y512" s="20"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V513" s="20"/>
+      <c r="Y513" s="20"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V514" s="20"/>
+      <c r="Y514" s="20"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V515" s="20"/>
+      <c r="Y515" s="20"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V516" s="20"/>
+      <c r="Y516" s="20"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V517" s="20"/>
+      <c r="Y517" s="20"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V518" s="20"/>
+      <c r="Y518" s="20"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V519" s="20"/>
+      <c r="Y519" s="20"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V520" s="20"/>
+      <c r="Y520" s="20"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V521" s="20"/>
+      <c r="Y521" s="20"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V522" s="20"/>
+      <c r="Y522" s="20"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V523" s="20"/>
+      <c r="Y523" s="20"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V524" s="20"/>
+      <c r="Y524" s="20"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V525" s="20"/>
+      <c r="Y525" s="20"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V526" s="20"/>
+      <c r="Y526" s="20"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V527" s="20"/>
+      <c r="Y527" s="20"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V528" s="20"/>
+      <c r="Y528" s="20"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V529" s="20"/>
+      <c r="Y529" s="20"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V530" s="20"/>
+      <c r="Y530" s="20"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V531" s="20"/>
+      <c r="Y531" s="20"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V532" s="20"/>
+      <c r="Y532" s="20"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V533" s="20"/>
+      <c r="Y533" s="20"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V534" s="20"/>
+      <c r="Y534" s="20"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V535" s="20"/>
+      <c r="Y535" s="20"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V536" s="20"/>
+      <c r="Y536" s="20"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V537" s="20"/>
+      <c r="Y537" s="20"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V538" s="20"/>
+      <c r="Y538" s="20"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V539" s="20"/>
+      <c r="Y539" s="20"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V540" s="20"/>
+      <c r="Y540" s="20"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V541" s="20"/>
+      <c r="Y541" s="20"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V542" s="20"/>
+      <c r="Y542" s="20"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V543" s="20"/>
+      <c r="Y543" s="20"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V544" s="20"/>
+      <c r="Y544" s="20"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V545" s="20"/>
+      <c r="Y545" s="20"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V546" s="20"/>
+      <c r="Y546" s="20"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V547" s="20"/>
+      <c r="Y547" s="20"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V548" s="20"/>
+      <c r="Y548" s="20"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V549" s="20"/>
+      <c r="Y549" s="20"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V550" s="20"/>
+      <c r="Y550" s="20"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V551" s="20"/>
+      <c r="Y551" s="20"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V552" s="20"/>
+      <c r="Y552" s="20"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V553" s="20"/>
+      <c r="Y553" s="20"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V554" s="20"/>
+      <c r="Y554" s="20"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V555" s="20"/>
+      <c r="Y555" s="20"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V556" s="20"/>
+      <c r="Y556" s="20"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V557" s="20"/>
+      <c r="Y557" s="20"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V558" s="20"/>
+      <c r="Y558" s="20"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V559" s="20"/>
+      <c r="Y559" s="20"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V560" s="20"/>
+      <c r="Y560" s="20"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V561" s="20"/>
+      <c r="Y561" s="20"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V562" s="20"/>
+      <c r="Y562" s="20"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V563" s="20"/>
+      <c r="Y563" s="20"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V564" s="20"/>
+      <c r="Y564" s="20"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V565" s="20"/>
+      <c r="Y565" s="20"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V566" s="20"/>
+      <c r="Y566" s="20"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V567" s="20"/>
+      <c r="Y567" s="20"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V568" s="20"/>
+      <c r="Y568" s="20"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V569" s="20"/>
+      <c r="Y569" s="20"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V570" s="20"/>
+      <c r="Y570" s="20"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V571" s="20"/>
+      <c r="Y571" s="20"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V572" s="20"/>
+      <c r="Y572" s="20"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V573" s="20"/>
+      <c r="Y573" s="20"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V574" s="20"/>
+      <c r="Y574" s="20"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V575" s="20"/>
+      <c r="Y575" s="20"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V576" s="20"/>
+      <c r="Y576" s="20"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V577" s="20"/>
+      <c r="Y577" s="20"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V578" s="20"/>
+      <c r="Y578" s="20"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V579" s="20"/>
+      <c r="Y579" s="20"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V580" s="20"/>
+      <c r="Y580" s="20"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V581" s="20"/>
+      <c r="Y581" s="20"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V582" s="20"/>
+      <c r="Y582" s="20"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V583" s="20"/>
+      <c r="Y583" s="20"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V584" s="20"/>
+      <c r="Y584" s="20"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V585" s="20"/>
+      <c r="Y585" s="20"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V586" s="20"/>
+      <c r="Y586" s="20"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V587" s="20"/>
+      <c r="Y587" s="20"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V588" s="20"/>
+      <c r="Y588" s="20"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V589" s="20"/>
+      <c r="Y589" s="20"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V590" s="20"/>
+      <c r="Y590" s="20"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V591" s="20"/>
+      <c r="Y591" s="20"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V592" s="20"/>
+      <c r="Y592" s="20"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V593" s="20"/>
+      <c r="Y593" s="20"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V594" s="20"/>
+      <c r="Y594" s="20"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V595" s="20"/>
+      <c r="Y595" s="20"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V596" s="20"/>
+      <c r="Y596" s="20"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V597" s="20"/>
+      <c r="Y597" s="20"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V598" s="20"/>
+      <c r="Y598" s="20"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V599" s="20"/>
+      <c r="Y599" s="20"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V600" s="20"/>
+      <c r="Y600" s="20"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V601" s="20"/>
+      <c r="Y601" s="20"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V602" s="20"/>
+      <c r="Y602" s="20"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V603" s="20"/>
+      <c r="Y603" s="20"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V604" s="20"/>
+      <c r="Y604" s="20"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V605" s="20"/>
+      <c r="Y605" s="20"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V606" s="20"/>
+      <c r="Y606" s="20"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V607" s="20"/>
+      <c r="Y607" s="20"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V608" s="20"/>
+      <c r="Y608" s="20"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V609" s="20"/>
+      <c r="Y609" s="20"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V610" s="20"/>
+      <c r="Y610" s="20"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V611" s="20"/>
+      <c r="Y611" s="20"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V612" s="20"/>
+      <c r="Y612" s="20"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V613" s="20"/>
+      <c r="Y613" s="20"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V614" s="20"/>
+      <c r="Y614" s="20"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V615" s="20"/>
+      <c r="Y615" s="20"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V616" s="20"/>
+      <c r="Y616" s="20"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V617" s="20"/>
+      <c r="Y617" s="20"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V618" s="20"/>
+      <c r="Y618" s="20"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V619" s="20"/>
+      <c r="Y619" s="20"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V620" s="20"/>
+      <c r="Y620" s="20"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V621" s="20"/>
+      <c r="Y621" s="20"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V622" s="20"/>
+      <c r="Y622" s="20"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V623" s="20"/>
+      <c r="Y623" s="20"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V624" s="20"/>
+      <c r="Y624" s="20"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V625" s="20"/>
+      <c r="Y625" s="20"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V626" s="20"/>
+      <c r="Y626" s="20"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V627" s="20"/>
+      <c r="Y627" s="20"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V628" s="20"/>
+      <c r="Y628" s="20"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V629" s="20"/>
+      <c r="Y629" s="20"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V630" s="20"/>
+      <c r="Y630" s="20"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V631" s="20"/>
+      <c r="Y631" s="20"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V632" s="20"/>
+      <c r="Y632" s="20"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V633" s="20"/>
+      <c r="Y633" s="20"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V634" s="20"/>
+      <c r="Y634" s="20"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V635" s="20"/>
+      <c r="Y635" s="20"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V636" s="20"/>
+      <c r="Y636" s="20"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V637" s="20"/>
+      <c r="Y637" s="20"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V638" s="20"/>
+      <c r="Y638" s="20"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V639" s="20"/>
+      <c r="Y639" s="20"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V640" s="20"/>
+      <c r="Y640" s="20"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V641" s="20"/>
+      <c r="Y641" s="20"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V642" s="20"/>
+      <c r="Y642" s="20"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V643" s="20"/>
+      <c r="Y643" s="20"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V644" s="20"/>
+      <c r="Y644" s="20"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V645" s="20"/>
+      <c r="Y645" s="20"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V646" s="20"/>
+      <c r="Y646" s="20"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V647" s="20"/>
+      <c r="Y647" s="20"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V648" s="20"/>
+      <c r="Y648" s="20"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V649" s="20"/>
+      <c r="Y649" s="20"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V650" s="20"/>
+      <c r="Y650" s="20"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V651" s="20"/>
+      <c r="Y651" s="20"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V652" s="20"/>
+      <c r="Y652" s="20"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V653" s="20"/>
+      <c r="Y653" s="20"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V654" s="20"/>
+      <c r="Y654" s="20"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V655" s="20"/>
+      <c r="Y655" s="20"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V656" s="20"/>
+      <c r="Y656" s="20"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V657" s="20"/>
+      <c r="Y657" s="20"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V658" s="20"/>
+      <c r="Y658" s="20"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V659" s="20"/>
+      <c r="Y659" s="20"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V660" s="20"/>
+      <c r="Y660" s="20"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V661" s="20"/>
+      <c r="Y661" s="20"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V662" s="20"/>
+      <c r="Y662" s="20"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V663" s="20"/>
+      <c r="Y663" s="20"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V664" s="20"/>
+      <c r="Y664" s="20"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V665" s="20"/>
+      <c r="Y665" s="20"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V666" s="20"/>
+      <c r="Y666" s="20"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V667" s="20"/>
+      <c r="Y667" s="20"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V668" s="20"/>
+      <c r="Y668" s="20"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V669" s="20"/>
+      <c r="Y669" s="20"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V670" s="20"/>
+      <c r="Y670" s="20"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V671" s="20"/>
+      <c r="Y671" s="20"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V672" s="20"/>
+      <c r="Y672" s="20"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V673" s="20"/>
+      <c r="Y673" s="20"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V674" s="20"/>
+      <c r="Y674" s="20"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V675" s="20"/>
+      <c r="Y675" s="20"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V676" s="20"/>
+      <c r="Y676" s="20"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V677" s="20"/>
+      <c r="Y677" s="20"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V678" s="20"/>
+      <c r="Y678" s="20"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V679" s="20"/>
+      <c r="Y679" s="20"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V680" s="20"/>
+      <c r="Y680" s="20"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V681" s="20"/>
+      <c r="Y681" s="20"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V682" s="20"/>
+      <c r="Y682" s="20"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V683" s="20"/>
+      <c r="Y683" s="20"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V684" s="20"/>
+      <c r="Y684" s="20"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V685" s="20"/>
+      <c r="Y685" s="20"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V686" s="20"/>
+      <c r="Y686" s="20"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V687" s="20"/>
+      <c r="Y687" s="20"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V688" s="20"/>
+      <c r="Y688" s="20"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V689" s="20"/>
+      <c r="Y689" s="20"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V690" s="20"/>
+      <c r="Y690" s="20"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V691" s="20"/>
+      <c r="Y691" s="20"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V692" s="20"/>
+      <c r="Y692" s="20"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V693" s="20"/>
+      <c r="Y693" s="20"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V694" s="20"/>
+      <c r="Y694" s="20"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V695" s="20"/>
+      <c r="Y695" s="20"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V696" s="20"/>
+      <c r="Y696" s="20"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V697" s="20"/>
+      <c r="Y697" s="20"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V698" s="20"/>
+      <c r="Y698" s="20"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V699" s="20"/>
+      <c r="Y699" s="20"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V700" s="20"/>
+      <c r="Y700" s="20"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V701" s="20"/>
+      <c r="Y701" s="20"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V702" s="20"/>
+      <c r="Y702" s="20"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V703" s="20"/>
+      <c r="Y703" s="20"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V704" s="20"/>
+      <c r="Y704" s="20"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V705" s="20"/>
+      <c r="Y705" s="20"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V706" s="20"/>
+      <c r="Y706" s="20"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V707" s="20"/>
+      <c r="Y707" s="20"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V708" s="20"/>
+      <c r="Y708" s="20"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V709" s="20"/>
+      <c r="Y709" s="20"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V710" s="20"/>
+      <c r="Y710" s="20"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V711" s="20"/>
+      <c r="Y711" s="20"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V712" s="20"/>
+      <c r="Y712" s="20"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V713" s="20"/>
+      <c r="Y713" s="20"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V714" s="20"/>
+      <c r="Y714" s="20"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V715" s="20"/>
+      <c r="Y715" s="20"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V716" s="20"/>
+      <c r="Y716" s="20"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V717" s="20"/>
+      <c r="Y717" s="20"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V718" s="20"/>
+      <c r="Y718" s="20"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V719" s="20"/>
+      <c r="Y719" s="20"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V720" s="20"/>
+      <c r="Y720" s="20"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V721" s="20"/>
+      <c r="Y721" s="20"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V722" s="20"/>
+      <c r="Y722" s="20"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V723" s="20"/>
+      <c r="Y723" s="20"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V724" s="20"/>
+      <c r="Y724" s="20"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V725" s="20"/>
+      <c r="Y725" s="20"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V726" s="20"/>
+      <c r="Y726" s="20"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V727" s="20"/>
+      <c r="Y727" s="20"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V728" s="20"/>
+      <c r="Y728" s="20"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V729" s="20"/>
+      <c r="Y729" s="20"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V730" s="20"/>
+      <c r="Y730" s="20"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V731" s="20"/>
+      <c r="Y731" s="20"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V732" s="20"/>
+      <c r="Y732" s="20"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V733" s="20"/>
+      <c r="Y733" s="20"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V734" s="20"/>
+      <c r="Y734" s="20"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V735" s="20"/>
+      <c r="Y735" s="20"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V736" s="20"/>
+      <c r="Y736" s="20"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V737" s="20"/>
+      <c r="Y737" s="20"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V738" s="20"/>
+      <c r="Y738" s="20"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V739" s="20"/>
+      <c r="Y739" s="20"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V740" s="20"/>
+      <c r="Y740" s="20"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V741" s="20"/>
+      <c r="Y741" s="20"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V742" s="20"/>
+      <c r="Y742" s="20"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V743" s="20"/>
+      <c r="Y743" s="20"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V744" s="20"/>
+      <c r="Y744" s="20"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V745" s="20"/>
+      <c r="Y745" s="20"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V746" s="20"/>
+      <c r="Y746" s="20"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V747" s="20"/>
+      <c r="Y747" s="20"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V748" s="20"/>
+      <c r="Y748" s="20"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V749" s="20"/>
+      <c r="Y749" s="20"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V750" s="20"/>
+      <c r="Y750" s="20"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V751" s="20"/>
+      <c r="Y751" s="20"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V752" s="20"/>
+      <c r="Y752" s="20"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V753" s="20"/>
+      <c r="Y753" s="20"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V754" s="20"/>
+      <c r="Y754" s="20"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V755" s="20"/>
+      <c r="Y755" s="20"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V756" s="20"/>
+      <c r="Y756" s="20"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V757" s="20"/>
+      <c r="Y757" s="20"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V758" s="20"/>
+      <c r="Y758" s="20"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V759" s="20"/>
+      <c r="Y759" s="20"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V760" s="20"/>
+      <c r="Y760" s="20"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V761" s="20"/>
+      <c r="Y761" s="20"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V762" s="20"/>
+      <c r="Y762" s="20"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V763" s="20"/>
+      <c r="Y763" s="20"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V764" s="20"/>
+      <c r="Y764" s="20"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V765" s="20"/>
+      <c r="Y765" s="20"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V766" s="20"/>
+      <c r="Y766" s="20"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V767" s="20"/>
+      <c r="Y767" s="20"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V768" s="20"/>
+      <c r="Y768" s="20"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V769" s="20"/>
+      <c r="Y769" s="20"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V770" s="20"/>
+      <c r="Y770" s="20"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V771" s="20"/>
+      <c r="Y771" s="20"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V772" s="20"/>
+      <c r="Y772" s="20"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V773" s="20"/>
+      <c r="Y773" s="20"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V774" s="20"/>
+      <c r="Y774" s="20"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V775" s="20"/>
+      <c r="Y775" s="20"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V776" s="20"/>
+      <c r="Y776" s="20"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V777" s="20"/>
+      <c r="Y777" s="20"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V778" s="20"/>
+      <c r="Y778" s="20"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V779" s="20"/>
+      <c r="Y779" s="20"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V780" s="20"/>
+      <c r="Y780" s="20"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V781" s="20"/>
+      <c r="Y781" s="20"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V782" s="20"/>
+      <c r="Y782" s="20"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V783" s="20"/>
+      <c r="Y783" s="20"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V784" s="20"/>
+      <c r="Y784" s="20"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V785" s="20"/>
+      <c r="Y785" s="20"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V786" s="20"/>
+      <c r="Y786" s="20"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V787" s="20"/>
+      <c r="Y787" s="20"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V788" s="20"/>
+      <c r="Y788" s="20"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V789" s="20"/>
+      <c r="Y789" s="20"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V790" s="20"/>
+      <c r="Y790" s="20"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V791" s="20"/>
+      <c r="Y791" s="20"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V792" s="20"/>
+      <c r="Y792" s="20"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V793" s="20"/>
+      <c r="Y793" s="20"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V794" s="20"/>
+      <c r="Y794" s="20"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V795" s="20"/>
+      <c r="Y795" s="20"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V796" s="20"/>
+      <c r="Y796" s="20"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V797" s="20"/>
+      <c r="Y797" s="20"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V798" s="20"/>
+      <c r="Y798" s="20"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V799" s="20"/>
+      <c r="Y799" s="20"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V800" s="20"/>
+      <c r="Y800" s="20"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V801" s="20"/>
+      <c r="Y801" s="20"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V802" s="20"/>
+      <c r="Y802" s="20"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V803" s="20"/>
+      <c r="Y803" s="20"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V804" s="20"/>
+      <c r="Y804" s="20"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V805" s="20"/>
+      <c r="Y805" s="20"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V806" s="20"/>
+      <c r="Y806" s="20"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V807" s="20"/>
+      <c r="Y807" s="20"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V808" s="20"/>
+      <c r="Y808" s="20"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V809" s="20"/>
+      <c r="Y809" s="20"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V810" s="20"/>
+      <c r="Y810" s="20"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V811" s="20"/>
+      <c r="Y811" s="20"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V812" s="20"/>
+      <c r="Y812" s="20"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V813" s="20"/>
+      <c r="Y813" s="20"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V814" s="20"/>
+      <c r="Y814" s="20"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V815" s="20"/>
+      <c r="Y815" s="20"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V816" s="20"/>
+      <c r="Y816" s="20"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V817" s="20"/>
+      <c r="Y817" s="20"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V818" s="20"/>
+      <c r="Y818" s="20"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V819" s="20"/>
+      <c r="Y819" s="20"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V820" s="20"/>
+      <c r="Y820" s="20"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V821" s="20"/>
+      <c r="Y821" s="20"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V822" s="20"/>
+      <c r="Y822" s="20"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V823" s="20"/>
+      <c r="Y823" s="20"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V824" s="20"/>
+      <c r="Y824" s="20"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V825" s="20"/>
+      <c r="Y825" s="20"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V826" s="20"/>
+      <c r="Y826" s="20"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V827" s="20"/>
+      <c r="Y827" s="20"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V828" s="20"/>
+      <c r="Y828" s="20"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V829" s="20"/>
+      <c r="Y829" s="20"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V830" s="20"/>
+      <c r="Y830" s="20"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V831" s="20"/>
+      <c r="Y831" s="20"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V832" s="20"/>
+      <c r="Y832" s="20"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V833" s="20"/>
+      <c r="Y833" s="20"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V834" s="20"/>
+      <c r="Y834" s="20"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V835" s="20"/>
+      <c r="Y835" s="20"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V836" s="20"/>
+      <c r="Y836" s="20"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V837" s="20"/>
+      <c r="Y837" s="20"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V838" s="20"/>
+      <c r="Y838" s="20"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V839" s="20"/>
+      <c r="Y839" s="20"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V840" s="20"/>
+      <c r="Y840" s="20"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V841" s="20"/>
+      <c r="Y841" s="20"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V842" s="20"/>
+      <c r="Y842" s="20"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V843" s="20"/>
+      <c r="Y843" s="20"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V844" s="20"/>
+      <c r="Y844" s="20"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V845" s="20"/>
+      <c r="Y845" s="20"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V846" s="20"/>
+      <c r="Y846" s="20"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V847" s="20"/>
+      <c r="Y847" s="20"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V848" s="20"/>
+      <c r="Y848" s="20"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V849" s="20"/>
+      <c r="Y849" s="20"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V850" s="20"/>
+      <c r="Y850" s="20"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V851" s="20"/>
+      <c r="Y851" s="20"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V852" s="20"/>
+      <c r="Y852" s="20"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V853" s="20"/>
+      <c r="Y853" s="20"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V854" s="20"/>
+      <c r="Y854" s="20"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V855" s="20"/>
+      <c r="Y855" s="20"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V856" s="20"/>
+      <c r="Y856" s="20"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V857" s="20"/>
+      <c r="Y857" s="20"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V858" s="20"/>
+      <c r="Y858" s="20"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V859" s="20"/>
+      <c r="Y859" s="20"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V860" s="20"/>
+      <c r="Y860" s="20"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V861" s="20"/>
+      <c r="Y861" s="20"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V862" s="20"/>
+      <c r="Y862" s="20"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V863" s="20"/>
+      <c r="Y863" s="20"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V864" s="20"/>
+      <c r="Y864" s="20"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V865" s="20"/>
+      <c r="Y865" s="20"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V866" s="20"/>
+      <c r="Y866" s="20"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V867" s="20"/>
+      <c r="Y867" s="20"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V868" s="20"/>
+      <c r="Y868" s="20"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V869" s="20"/>
+      <c r="Y869" s="20"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V870" s="20"/>
+      <c r="Y870" s="20"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V871" s="20"/>
+      <c r="Y871" s="20"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V872" s="20"/>
+      <c r="Y872" s="20"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V873" s="20"/>
+      <c r="Y873" s="20"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V874" s="20"/>
+      <c r="Y874" s="20"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V875" s="20"/>
+      <c r="Y875" s="20"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V876" s="20"/>
+      <c r="Y876" s="20"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V877" s="20"/>
+      <c r="Y877" s="20"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V878" s="20"/>
+      <c r="Y878" s="20"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V879" s="20"/>
+      <c r="Y879" s="20"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V880" s="20"/>
+      <c r="Y880" s="20"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V881" s="20"/>
+      <c r="Y881" s="20"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V882" s="20"/>
+      <c r="Y882" s="20"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V883" s="20"/>
+      <c r="Y883" s="20"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V884" s="20"/>
+      <c r="Y884" s="20"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V885" s="20"/>
+      <c r="Y885" s="20"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V886" s="20"/>
+      <c r="Y886" s="20"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V887" s="20"/>
+      <c r="Y887" s="20"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V888" s="20"/>
+      <c r="Y888" s="20"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V889" s="20"/>
+      <c r="Y889" s="20"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V890" s="20"/>
+      <c r="Y890" s="20"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V891" s="20"/>
+      <c r="Y891" s="20"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V892" s="20"/>
+      <c r="Y892" s="20"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V893" s="20"/>
+      <c r="Y893" s="20"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V894" s="20"/>
+      <c r="Y894" s="20"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V895" s="20"/>
+      <c r="Y895" s="20"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V896" s="20"/>
+      <c r="Y896" s="20"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V897" s="20"/>
+      <c r="Y897" s="20"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V898" s="20"/>
+      <c r="Y898" s="20"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V899" s="20"/>
+      <c r="Y899" s="20"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V900" s="20"/>
+      <c r="Y900" s="20"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V901" s="20"/>
+      <c r="Y901" s="20"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V902" s="20"/>
+      <c r="Y902" s="20"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V903" s="20"/>
+      <c r="Y903" s="20"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V904" s="20"/>
+      <c r="Y904" s="20"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V905" s="20"/>
+      <c r="Y905" s="20"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V906" s="20"/>
+      <c r="Y906" s="20"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V907" s="20"/>
+      <c r="Y907" s="20"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V908" s="20"/>
+      <c r="Y908" s="20"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V909" s="20"/>
+      <c r="Y909" s="20"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V910" s="20"/>
+      <c r="Y910" s="20"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V911" s="20"/>
+      <c r="Y911" s="20"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V912" s="20"/>
+      <c r="Y912" s="20"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V913" s="20"/>
+      <c r="Y913" s="20"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V914" s="20"/>
+      <c r="Y914" s="20"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V915" s="20"/>
+      <c r="Y915" s="20"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V916" s="20"/>
+      <c r="Y916" s="20"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V917" s="20"/>
+      <c r="Y917" s="20"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V918" s="20"/>
+      <c r="Y918" s="20"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V919" s="20"/>
+      <c r="Y919" s="20"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V920" s="20"/>
+      <c r="Y920" s="20"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V921" s="20"/>
+      <c r="Y921" s="20"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V922" s="20"/>
+      <c r="Y922" s="20"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V923" s="20"/>
+      <c r="Y923" s="20"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V924" s="20"/>
+      <c r="Y924" s="20"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V925" s="20"/>
+      <c r="Y925" s="20"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V926" s="20"/>
+      <c r="Y926" s="20"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V927" s="20"/>
+      <c r="Y927" s="20"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V928" s="20"/>
+      <c r="Y928" s="20"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V929" s="20"/>
+      <c r="Y929" s="20"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V930" s="20"/>
+      <c r="Y930" s="20"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V931" s="20"/>
+      <c r="Y931" s="20"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V932" s="20"/>
+      <c r="Y932" s="20"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V933" s="20"/>
+      <c r="Y933" s="20"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V934" s="20"/>
+      <c r="Y934" s="20"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V935" s="20"/>
+      <c r="Y935" s="20"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V936" s="20"/>
+      <c r="Y936" s="20"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V937" s="20"/>
+      <c r="Y937" s="20"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V938" s="20"/>
+      <c r="Y938" s="20"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V939" s="20"/>
+      <c r="Y939" s="20"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V940" s="20"/>
+      <c r="Y940" s="20"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V941" s="20"/>
+      <c r="Y941" s="20"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V942" s="20"/>
+      <c r="Y942" s="20"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V943" s="20"/>
+      <c r="Y943" s="20"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V944" s="20"/>
+      <c r="Y944" s="20"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V945" s="20"/>
+      <c r="Y945" s="20"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V946" s="20"/>
+      <c r="Y946" s="20"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V947" s="20"/>
+      <c r="Y947" s="20"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V948" s="20"/>
+      <c r="Y948" s="20"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V949" s="20"/>
+      <c r="Y949" s="20"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V950" s="20"/>
+      <c r="Y950" s="20"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V951" s="20"/>
+      <c r="Y951" s="20"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V952" s="20"/>
+      <c r="Y952" s="20"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V953" s="20"/>
+      <c r="Y953" s="20"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V954" s="20"/>
+      <c r="Y954" s="20"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V955" s="20"/>
+      <c r="Y955" s="20"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V956" s="20"/>
+      <c r="Y956" s="20"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V957" s="20"/>
+      <c r="Y957" s="20"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V958" s="20"/>
+      <c r="Y958" s="20"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V959" s="20"/>
+      <c r="Y959" s="20"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V960" s="20"/>
+      <c r="Y960" s="20"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V961" s="20"/>
+      <c r="Y961" s="20"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V962" s="20"/>
+      <c r="Y962" s="20"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V963" s="20"/>
+      <c r="Y963" s="20"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V964" s="20"/>
+      <c r="Y964" s="20"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V965" s="20"/>
+      <c r="Y965" s="20"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V966" s="20"/>
+      <c r="Y966" s="20"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V967" s="20"/>
+      <c r="Y967" s="20"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V968" s="20"/>
+      <c r="Y968" s="20"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V969" s="20"/>
+      <c r="Y969" s="20"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V970" s="20"/>
+      <c r="Y970" s="20"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V971" s="20"/>
+      <c r="Y971" s="20"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V972" s="20"/>
+      <c r="Y972" s="20"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V973" s="20"/>
+      <c r="Y973" s="20"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V974" s="20"/>
+      <c r="Y974" s="20"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V975" s="20"/>
+      <c r="Y975" s="20"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V976" s="20"/>
+      <c r="Y976" s="20"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V977" s="20"/>
+      <c r="Y977" s="20"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V978" s="20"/>
+      <c r="Y978" s="20"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V979" s="20"/>
+      <c r="Y979" s="20"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V980" s="20"/>
+      <c r="Y980" s="20"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V981" s="20"/>
+      <c r="Y981" s="20"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V982" s="20"/>
+      <c r="Y982" s="20"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V983" s="20"/>
+      <c r="Y983" s="20"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V984" s="20"/>
+      <c r="Y984" s="20"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V985" s="20"/>
+      <c r="Y985" s="20"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V986" s="20"/>
+      <c r="Y986" s="20"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V987" s="20"/>
+      <c r="Y987" s="20"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V988" s="20"/>
+      <c r="Y988" s="20"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V989" s="20"/>
+      <c r="Y989" s="20"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V990" s="20"/>
+      <c r="Y990" s="20"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V991" s="20"/>
+      <c r="Y991" s="20"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V992" s="20"/>
+      <c r="Y992" s="20"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V993" s="20"/>
+      <c r="Y993" s="20"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V994" s="20"/>
+      <c r="Y994" s="20"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V995" s="20"/>
+      <c r="Y995" s="20"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V996" s="20"/>
+      <c r="Y996" s="20"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V997" s="20"/>
+      <c r="Y997" s="20"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V998" s="20"/>
+      <c r="Y998" s="20"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V999" s="20"/>
+      <c r="Y999" s="20"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V1000" s="20"/>
+      <c r="Y1000" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2110,6 +6905,7 @@
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:R3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/controllers/api/reports/new.xlsx
+++ b/controllers/api/reports/new.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="28">
   <si>
-    <t>28.01.2021</t>
+    <t>1.11.2021</t>
   </si>
   <si>
     <t>սկզբնական</t>
@@ -67,7 +67,10 @@
     <t>կ/գ</t>
   </si>
   <si>
-    <t>1_1</t>
+    <t>6_1.1</t>
+  </si>
+  <si>
+    <t>Իշխանն</t>
   </si>
   <si>
     <t>0.0000</t>
@@ -76,211 +79,22 @@
     <t>0</t>
   </si>
   <si>
-    <t>120</t>
+    <t>0.00</t>
   </si>
   <si>
-    <t>210.0000</t>
+    <t>6_2</t>
   </si>
   <si>
-    <t>38</t>
+    <t>Չաղ ձուկ</t>
   </si>
   <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>67.0000</t>
+    <t>իշխան</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>0.1163</t>
-  </si>
-  <si>
-    <t>46.5000</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>1.9530</t>
-  </si>
-  <si>
-    <t>-93.9308</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>1_2</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>0.1099</t>
-  </si>
-  <si>
-    <t>27.4667</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>0.5493</t>
-  </si>
-  <si>
-    <t>-53.3408</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>1_3</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>1_4</t>
-  </si>
-  <si>
-    <t>Իշխան2</t>
-  </si>
-  <si>
-    <t>6_2</t>
-  </si>
-  <si>
-    <t>Ոսկե ձկնիկ</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>300.0000</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>-290.0000</t>
-  </si>
-  <si>
-    <t>6_1.1</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>540.0000</t>
-  </si>
-  <si>
-    <t>1000.0000</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>760.0000</t>
-  </si>
-  <si>
-    <t>1_5</t>
-  </si>
-  <si>
-    <t>1_6</t>
-  </si>
-  <si>
-    <t>1_7</t>
-  </si>
-  <si>
-    <t>1_8</t>
-  </si>
-  <si>
-    <t>1_9</t>
-  </si>
-  <si>
-    <t>2_1</t>
-  </si>
-  <si>
-    <t>2_2</t>
-  </si>
-  <si>
-    <t>2_3</t>
-  </si>
-  <si>
-    <t>2_4</t>
-  </si>
-  <si>
     <t>2_5</t>
-  </si>
-  <si>
-    <t>2_6</t>
-  </si>
-  <si>
-    <t>2_9</t>
-  </si>
-  <si>
-    <t>2_8</t>
-  </si>
-  <si>
-    <t>2_7</t>
-  </si>
-  <si>
-    <t>3_1</t>
-  </si>
-  <si>
-    <t>3_2</t>
-  </si>
-  <si>
-    <t>3_3</t>
-  </si>
-  <si>
-    <t>3_4</t>
-  </si>
-  <si>
-    <t>3_5</t>
-  </si>
-  <si>
-    <t>3_6</t>
-  </si>
-  <si>
-    <t>3_7</t>
-  </si>
-  <si>
-    <t>3_8</t>
-  </si>
-  <si>
-    <t>3_9</t>
-  </si>
-  <si>
-    <t>4_1</t>
-  </si>
-  <si>
-    <t>4_2</t>
-  </si>
-  <si>
-    <t>4_3</t>
-  </si>
-  <si>
-    <t>4_4</t>
   </si>
 </sst>
 </file>
@@ -856,2189 +670,462 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
       <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
+      <c r="Y5" s="20"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="J5" t="s">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="20"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="R5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="20"/>
-      <c r="Y5" s="20"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
         <v>20</v>
       </c>
-      <c r="R6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" s="20"/>
-      <c r="Y6" s="20"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
         <v>20</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" t="s">
         <v>20</v>
       </c>
-      <c r="R7" t="s">
-        <v>19</v>
-      </c>
       <c r="S7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" t="s">
         <v>20</v>
       </c>
-      <c r="T7" t="s">
-        <v>19</v>
-      </c>
       <c r="U7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V7" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="V7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" t="s">
+        <v>22</v>
+      </c>
       <c r="Y7" s="20"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
+      <c r="A8">
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
       <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
       <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
         <v>20</v>
       </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
       <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
         <v>20</v>
       </c>
-      <c r="M8" t="s">
-        <v>19</v>
-      </c>
       <c r="N8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O8" t="s">
         <v>20</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" t="s">
         <v>20</v>
       </c>
-      <c r="R8" t="s">
-        <v>19</v>
-      </c>
       <c r="S8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" t="s">
         <v>20</v>
       </c>
-      <c r="T8" t="s">
-        <v>19</v>
-      </c>
       <c r="U8" t="s">
-        <v>47</v>
-      </c>
-      <c r="V8" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="V8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" t="s">
+        <v>22</v>
+      </c>
       <c r="Y8" s="20"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
+      <c r="A9">
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
         <v>20</v>
       </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
       <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
         <v>20</v>
       </c>
-      <c r="K9" t="s">
-        <v>19</v>
-      </c>
       <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
         <v>20</v>
       </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="P9" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="Q9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" t="s">
         <v>20</v>
       </c>
-      <c r="R9" t="s">
-        <v>56</v>
-      </c>
       <c r="S9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" t="s">
         <v>20</v>
       </c>
-      <c r="T9" t="s">
-        <v>56</v>
-      </c>
       <c r="U9" t="s">
-        <v>47</v>
-      </c>
-      <c r="V9" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="V9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" t="s">
+        <v>22</v>
+      </c>
       <c r="Y9" s="20"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" t="s">
-        <v>62</v>
-      </c>
-      <c r="U10" t="s">
-        <v>47</v>
-      </c>
+    <row r="10" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V10" s="20"/>
       <c r="Y10" s="20"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" t="s">
-        <v>19</v>
-      </c>
-      <c r="S11" t="s">
-        <v>20</v>
-      </c>
-      <c r="T11" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11" t="s">
-        <v>47</v>
-      </c>
+    <row r="11" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V11" s="20"/>
       <c r="Y11" s="20"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" t="s">
-        <v>20</v>
-      </c>
-      <c r="T12" t="s">
-        <v>19</v>
-      </c>
-      <c r="U12" t="s">
-        <v>47</v>
-      </c>
+    <row r="12" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V12" s="20"/>
       <c r="Y12" s="20"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13" t="s">
-        <v>20</v>
-      </c>
-      <c r="T13" t="s">
-        <v>19</v>
-      </c>
-      <c r="U13" t="s">
-        <v>47</v>
-      </c>
+    <row r="13" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V13" s="20"/>
       <c r="Y13" s="20"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" t="s">
-        <v>19</v>
-      </c>
-      <c r="S14" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" t="s">
-        <v>19</v>
-      </c>
-      <c r="U14" t="s">
-        <v>47</v>
-      </c>
+    <row r="14" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V14" s="20"/>
       <c r="Y14" s="20"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" t="s">
-        <v>19</v>
-      </c>
-      <c r="S15" t="s">
-        <v>20</v>
-      </c>
-      <c r="T15" t="s">
-        <v>19</v>
-      </c>
-      <c r="U15" t="s">
-        <v>47</v>
-      </c>
+    <row r="15" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V15" s="20"/>
       <c r="Y15" s="20"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" t="s">
-        <v>19</v>
-      </c>
-      <c r="S16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T16" t="s">
-        <v>19</v>
-      </c>
-      <c r="U16" t="s">
-        <v>47</v>
-      </c>
+    <row r="16" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V16" s="20"/>
       <c r="Y16" s="20"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" t="s">
-        <v>19</v>
-      </c>
-      <c r="S17" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" t="s">
-        <v>19</v>
-      </c>
-      <c r="U17" t="s">
-        <v>47</v>
-      </c>
+    <row r="17" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V17" s="20"/>
       <c r="Y17" s="20"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" t="s">
-        <v>19</v>
-      </c>
-      <c r="S18" t="s">
-        <v>20</v>
-      </c>
-      <c r="T18" t="s">
-        <v>19</v>
-      </c>
-      <c r="U18" t="s">
-        <v>47</v>
-      </c>
+    <row r="18" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V18" s="20"/>
       <c r="Y18" s="20"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" t="s">
-        <v>19</v>
-      </c>
-      <c r="S19" t="s">
-        <v>20</v>
-      </c>
-      <c r="T19" t="s">
-        <v>19</v>
-      </c>
-      <c r="U19" t="s">
-        <v>47</v>
-      </c>
+    <row r="19" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V19" s="20"/>
       <c r="Y19" s="20"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" t="s">
-        <v>19</v>
-      </c>
-      <c r="S20" t="s">
-        <v>20</v>
-      </c>
-      <c r="T20" t="s">
-        <v>19</v>
-      </c>
-      <c r="U20" t="s">
-        <v>47</v>
-      </c>
+    <row r="20" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V20" s="20"/>
       <c r="Y20" s="20"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T21" t="s">
-        <v>19</v>
-      </c>
-      <c r="U21" t="s">
-        <v>47</v>
-      </c>
+    <row r="21" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V21" s="20"/>
       <c r="Y21" s="20"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" t="s">
-        <v>19</v>
-      </c>
-      <c r="O22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" t="s">
-        <v>19</v>
-      </c>
-      <c r="S22" t="s">
-        <v>20</v>
-      </c>
-      <c r="T22" t="s">
-        <v>19</v>
-      </c>
-      <c r="U22" t="s">
-        <v>47</v>
-      </c>
+    <row r="22" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V22" s="20"/>
       <c r="Y22" s="20"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" t="s">
-        <v>19</v>
-      </c>
-      <c r="O23" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" t="s">
-        <v>19</v>
-      </c>
-      <c r="S23" t="s">
-        <v>20</v>
-      </c>
-      <c r="T23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U23" t="s">
-        <v>47</v>
-      </c>
+    <row r="23" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V23" s="20"/>
       <c r="Y23" s="20"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" t="s">
-        <v>19</v>
-      </c>
-      <c r="S24" t="s">
-        <v>20</v>
-      </c>
-      <c r="T24" t="s">
-        <v>19</v>
-      </c>
-      <c r="U24" t="s">
-        <v>47</v>
-      </c>
+    <row r="24" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V24" s="20"/>
       <c r="Y24" s="20"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" t="s">
-        <v>19</v>
-      </c>
-      <c r="O25" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>20</v>
-      </c>
-      <c r="R25" t="s">
-        <v>19</v>
-      </c>
-      <c r="S25" t="s">
-        <v>20</v>
-      </c>
-      <c r="T25" t="s">
-        <v>19</v>
-      </c>
-      <c r="U25" t="s">
-        <v>47</v>
-      </c>
+    <row r="25" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V25" s="20"/>
       <c r="Y25" s="20"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" t="s">
-        <v>19</v>
-      </c>
-      <c r="S26" t="s">
-        <v>20</v>
-      </c>
-      <c r="T26" t="s">
-        <v>19</v>
-      </c>
-      <c r="U26" t="s">
-        <v>47</v>
-      </c>
+    <row r="26" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V26" s="20"/>
       <c r="Y26" s="20"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" t="s">
-        <v>19</v>
-      </c>
-      <c r="O27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" t="s">
-        <v>19</v>
-      </c>
-      <c r="S27" t="s">
-        <v>20</v>
-      </c>
-      <c r="T27" t="s">
-        <v>19</v>
-      </c>
-      <c r="U27" t="s">
-        <v>47</v>
-      </c>
+    <row r="27" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V27" s="20"/>
       <c r="Y27" s="20"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" t="s">
-        <v>19</v>
-      </c>
-      <c r="O28" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" t="s">
-        <v>19</v>
-      </c>
-      <c r="S28" t="s">
-        <v>20</v>
-      </c>
-      <c r="T28" t="s">
-        <v>19</v>
-      </c>
-      <c r="U28" t="s">
-        <v>47</v>
-      </c>
+    <row r="28" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V28" s="20"/>
       <c r="Y28" s="20"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" t="s">
-        <v>19</v>
-      </c>
-      <c r="N29" t="s">
-        <v>19</v>
-      </c>
-      <c r="O29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>20</v>
-      </c>
-      <c r="R29" t="s">
-        <v>19</v>
-      </c>
-      <c r="S29" t="s">
-        <v>20</v>
-      </c>
-      <c r="T29" t="s">
-        <v>19</v>
-      </c>
-      <c r="U29" t="s">
-        <v>47</v>
-      </c>
+    <row r="29" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V29" s="20"/>
       <c r="Y29" s="20"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" t="s">
-        <v>19</v>
-      </c>
-      <c r="N30" t="s">
-        <v>19</v>
-      </c>
-      <c r="O30" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" t="s">
-        <v>19</v>
-      </c>
-      <c r="S30" t="s">
-        <v>20</v>
-      </c>
-      <c r="T30" t="s">
-        <v>19</v>
-      </c>
-      <c r="U30" t="s">
-        <v>47</v>
-      </c>
+    <row r="30" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V30" s="20"/>
       <c r="Y30" s="20"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" t="s">
-        <v>19</v>
-      </c>
-      <c r="N31" t="s">
-        <v>19</v>
-      </c>
-      <c r="O31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R31" t="s">
-        <v>19</v>
-      </c>
-      <c r="S31" t="s">
-        <v>20</v>
-      </c>
-      <c r="T31" t="s">
-        <v>19</v>
-      </c>
-      <c r="U31" t="s">
-        <v>47</v>
-      </c>
+    <row r="31" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V31" s="20"/>
       <c r="Y31" s="20"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" t="s">
-        <v>19</v>
-      </c>
-      <c r="N32" t="s">
-        <v>19</v>
-      </c>
-      <c r="O32" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" t="s">
-        <v>19</v>
-      </c>
-      <c r="S32" t="s">
-        <v>20</v>
-      </c>
-      <c r="T32" t="s">
-        <v>19</v>
-      </c>
-      <c r="U32" t="s">
-        <v>47</v>
-      </c>
+    <row r="32" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V32" s="20"/>
       <c r="Y32" s="20"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" t="s">
-        <v>19</v>
-      </c>
-      <c r="N33" t="s">
-        <v>19</v>
-      </c>
-      <c r="O33" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>20</v>
-      </c>
-      <c r="R33" t="s">
-        <v>19</v>
-      </c>
-      <c r="S33" t="s">
-        <v>20</v>
-      </c>
-      <c r="T33" t="s">
-        <v>19</v>
-      </c>
-      <c r="U33" t="s">
-        <v>47</v>
-      </c>
+    <row r="33" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V33" s="20"/>
       <c r="Y33" s="20"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" t="s">
-        <v>19</v>
-      </c>
-      <c r="N34" t="s">
-        <v>19</v>
-      </c>
-      <c r="O34" t="s">
-        <v>20</v>
-      </c>
-      <c r="P34" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>20</v>
-      </c>
-      <c r="R34" t="s">
-        <v>19</v>
-      </c>
-      <c r="S34" t="s">
-        <v>20</v>
-      </c>
-      <c r="T34" t="s">
-        <v>19</v>
-      </c>
-      <c r="U34" t="s">
-        <v>47</v>
-      </c>
+    <row r="34" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V34" s="20"/>
       <c r="Y34" s="20"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" t="s">
-        <v>19</v>
-      </c>
-      <c r="N35" t="s">
-        <v>19</v>
-      </c>
-      <c r="O35" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>20</v>
-      </c>
-      <c r="R35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S35" t="s">
-        <v>20</v>
-      </c>
-      <c r="T35" t="s">
-        <v>19</v>
-      </c>
-      <c r="U35" t="s">
-        <v>47</v>
-      </c>
+    <row r="35" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V35" s="20"/>
       <c r="Y35" s="20"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" t="s">
-        <v>19</v>
-      </c>
-      <c r="N36" t="s">
-        <v>19</v>
-      </c>
-      <c r="O36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36" t="s">
-        <v>19</v>
-      </c>
-      <c r="S36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T36" t="s">
-        <v>19</v>
-      </c>
-      <c r="U36" t="s">
-        <v>47</v>
-      </c>
+    <row r="36" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V36" s="20"/>
       <c r="Y36" s="20"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" t="s">
-        <v>19</v>
-      </c>
-      <c r="N37" t="s">
-        <v>19</v>
-      </c>
-      <c r="O37" t="s">
-        <v>20</v>
-      </c>
-      <c r="P37" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R37" t="s">
-        <v>19</v>
-      </c>
-      <c r="S37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T37" t="s">
-        <v>19</v>
-      </c>
-      <c r="U37" t="s">
-        <v>47</v>
-      </c>
+    <row r="37" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
       <c r="V37" s="20"/>
       <c r="Y37" s="20"/>
     </row>

--- a/controllers/api/reports/new.xlsx
+++ b/controllers/api/reports/new.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="28">
-  <si>
-    <t>1.11.2021</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+  <si>
+    <t>2.11.2021</t>
   </si>
   <si>
     <t>սկզբնական</t>
@@ -67,10 +67,7 @@
     <t>կ/գ</t>
   </si>
   <si>
-    <t>6_1.1</t>
-  </si>
-  <si>
-    <t>Իշխանն</t>
+    <t>1</t>
   </si>
   <si>
     <t>0.0000</t>
@@ -79,22 +76,94 @@
     <t>0</t>
   </si>
   <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>21754.0000</t>
+  </si>
+  <si>
+    <t>4500.0000</t>
+  </si>
+  <si>
+    <t>20250.0000</t>
+  </si>
+  <si>
+    <t>-1504.0000</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>6_2</t>
-  </si>
-  <si>
-    <t>Չաղ ձուկ</t>
-  </si>
-  <si>
-    <t>իշխան</t>
+    <t>2_5</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0.2250</t>
+  </si>
+  <si>
+    <t>8488</t>
+  </si>
+  <si>
+    <t>8957.0000</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>400.0000</t>
+  </si>
+  <si>
+    <t>8303.0000</t>
+  </si>
+  <si>
+    <t>8303</t>
+  </si>
+  <si>
+    <t>68939.8090</t>
+  </si>
+  <si>
+    <t>60382.5840</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>2_5</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0.1000</t>
+  </si>
+  <si>
+    <t>8085</t>
+  </si>
+  <si>
+    <t>73687.0000</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>880.0000</t>
+  </si>
+  <si>
+    <t>7695.0000</t>
+  </si>
+  <si>
+    <t>7695</t>
+  </si>
+  <si>
+    <t>59213.0250</t>
+  </si>
+  <si>
+    <t>-13594.0750</t>
   </si>
 </sst>
 </file>
@@ -671,350 +740,208 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
       <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
       <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
       <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
       <c r="O5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" t="s">
         <v>20</v>
       </c>
-      <c r="S5" t="s">
-        <v>21</v>
-      </c>
       <c r="T5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" t="s">
         <v>20</v>
       </c>
-      <c r="U5" t="s">
-        <v>21</v>
-      </c>
       <c r="V5" s="20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y5" s="20"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="T6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" t="s">
         <v>20</v>
       </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" t="s">
-        <v>21</v>
-      </c>
       <c r="V6" s="20" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y6" s="20"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="T7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" t="s">
         <v>20</v>
       </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U7" t="s">
-        <v>21</v>
-      </c>
       <c r="V7" s="20" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="W7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y7" s="20"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" t="s">
-        <v>21</v>
-      </c>
-      <c r="V8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" t="s">
-        <v>22</v>
-      </c>
+    <row r="8" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V8" s="20"/>
       <c r="Y8" s="20"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" t="s">
-        <v>21</v>
-      </c>
-      <c r="T9" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="W9" t="s">
-        <v>22</v>
-      </c>
+    <row r="9" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="V9" s="20"/>
       <c r="Y9" s="20"/>
     </row>
     <row r="10" spans="22:25" x14ac:dyDescent="0.25">

--- a/controllers/api/reports/new.xlsx
+++ b/controllers/api/reports/new.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
-  <si>
-    <t>2.11.2021</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="203">
+  <si>
+    <t>3.11.2021</t>
   </si>
   <si>
     <t>սկզբնական</t>
@@ -67,103 +67,559 @@
     <t>կ/գ</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>սիգ</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>-4913</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>378.8568</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-5405</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:44:11.277Z</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>իշխան</t>
+  </si>
+  <si>
+    <t>1420.0000</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>45255.0000</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>636.0000</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>352.0000</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>527.0000</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>0.4000</t>
+  </si>
+  <si>
+    <t>2021-02-02T20:00:00.000Z</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>21754.0000</t>
-  </si>
-  <si>
-    <t>4500.0000</t>
-  </si>
-  <si>
-    <t>20250.0000</t>
-  </si>
-  <si>
-    <t>-1504.0000</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>2_5</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>0.2250</t>
-  </si>
-  <si>
-    <t>8488</t>
-  </si>
-  <si>
-    <t>8957.0000</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>400.0000</t>
-  </si>
-  <si>
-    <t>8303.0000</t>
-  </si>
-  <si>
-    <t>8303</t>
-  </si>
-  <si>
-    <t>68939.8090</t>
-  </si>
-  <si>
-    <t>60382.5840</t>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>105.6000</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>1100.0000</t>
+  </si>
+  <si>
+    <t>-701</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:34:14.293Z</t>
+  </si>
+  <si>
+    <t>-485</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-113</t>
+  </si>
+  <si>
+    <t>-1409</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:34:59.529Z</t>
+  </si>
+  <si>
+    <t>-977</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>-233</t>
+  </si>
+  <si>
+    <t>-2117</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:36:57.373Z</t>
+  </si>
+  <si>
+    <t>-1469</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>-353</t>
+  </si>
+  <si>
+    <t>-1961</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:39:38.058Z</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>-473</t>
+  </si>
+  <si>
+    <t>-2453</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:40:42.657Z</t>
+  </si>
+  <si>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>-593</t>
+  </si>
+  <si>
+    <t>-2945</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:42:27.013Z</t>
+  </si>
+  <si>
+    <t>3607</t>
+  </si>
+  <si>
+    <t>-713</t>
+  </si>
+  <si>
+    <t>-3437</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:42:52.473Z</t>
+  </si>
+  <si>
+    <t>4207</t>
+  </si>
+  <si>
+    <t>-833</t>
+  </si>
+  <si>
+    <t>-3929</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:43:05.580Z</t>
+  </si>
+  <si>
+    <t>4807</t>
+  </si>
+  <si>
+    <t>-953</t>
+  </si>
+  <si>
+    <t>-4421</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:43:07.903Z</t>
+  </si>
+  <si>
+    <t>5407</t>
+  </si>
+  <si>
+    <t>-1073</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:43:54.070Z</t>
+  </si>
+  <si>
+    <t>6007</t>
+  </si>
+  <si>
+    <t>-1193</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0.1000</t>
-  </si>
-  <si>
-    <t>8085</t>
-  </si>
-  <si>
-    <t>73687.0000</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>880.0000</t>
-  </si>
-  <si>
-    <t>7695.0000</t>
-  </si>
-  <si>
-    <t>7695</t>
-  </si>
-  <si>
-    <t>59213.0250</t>
-  </si>
-  <si>
-    <t>-13594.0750</t>
+    <t>6607</t>
+  </si>
+  <si>
+    <t>-1313</t>
+  </si>
+  <si>
+    <t>-5897</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:45:23.006Z</t>
+  </si>
+  <si>
+    <t>7207</t>
+  </si>
+  <si>
+    <t>-1433</t>
+  </si>
+  <si>
+    <t>-6389</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:45:25.212Z</t>
+  </si>
+  <si>
+    <t>7807</t>
+  </si>
+  <si>
+    <t>-1553</t>
+  </si>
+  <si>
+    <t>-6881</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:45:39.568Z</t>
+  </si>
+  <si>
+    <t>8407</t>
+  </si>
+  <si>
+    <t>-1673</t>
+  </si>
+  <si>
+    <t>-7373</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:46:32.278Z</t>
+  </si>
+  <si>
+    <t>9007</t>
+  </si>
+  <si>
+    <t>-1793</t>
+  </si>
+  <si>
+    <t>-7865</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:49:40.168Z</t>
+  </si>
+  <si>
+    <t>9607</t>
+  </si>
+  <si>
+    <t>-1913</t>
+  </si>
+  <si>
+    <t>-8357</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:52:08.083Z</t>
+  </si>
+  <si>
+    <t>10207</t>
+  </si>
+  <si>
+    <t>-2033</t>
+  </si>
+  <si>
+    <t>-8849</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:54:21.595Z</t>
+  </si>
+  <si>
+    <t>10807</t>
+  </si>
+  <si>
+    <t>-2153</t>
+  </si>
+  <si>
+    <t>taza</t>
+  </si>
+  <si>
+    <t>-9341</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:55:37.360Z</t>
+  </si>
+  <si>
+    <t>11407</t>
+  </si>
+  <si>
+    <t>-2273</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>578.8568</t>
+  </si>
+  <si>
+    <t>-10533</t>
+  </si>
+  <si>
+    <t>2021-02-03T06:58:56.375Z</t>
+  </si>
+  <si>
+    <t>12007</t>
+  </si>
+  <si>
+    <t>-2393</t>
+  </si>
+  <si>
+    <t>-11725</t>
+  </si>
+  <si>
+    <t>2021-02-03T07:10:46.056Z</t>
+  </si>
+  <si>
+    <t>12607</t>
+  </si>
+  <si>
+    <t>-2513</t>
+  </si>
+  <si>
+    <t>-12917</t>
+  </si>
+  <si>
+    <t>2021-02-03T07:12:47.792Z</t>
+  </si>
+  <si>
+    <t>13207</t>
+  </si>
+  <si>
+    <t>-2633</t>
+  </si>
+  <si>
+    <t>-14109</t>
+  </si>
+  <si>
+    <t>2021-02-03T07:13:01.415Z</t>
+  </si>
+  <si>
+    <t>13807</t>
+  </si>
+  <si>
+    <t>-2753</t>
+  </si>
+  <si>
+    <t>-15301</t>
+  </si>
+  <si>
+    <t>2021-02-03T07:15:00.303Z</t>
+  </si>
+  <si>
+    <t>14407</t>
+  </si>
+  <si>
+    <t>-2873</t>
+  </si>
+  <si>
+    <t>-16493</t>
+  </si>
+  <si>
+    <t>2021-02-03T07:16:04.844Z</t>
+  </si>
+  <si>
+    <t>15007</t>
+  </si>
+  <si>
+    <t>-2993</t>
+  </si>
+  <si>
+    <t>-17685</t>
+  </si>
+  <si>
+    <t>2021-02-03T07:16:06.399Z</t>
+  </si>
+  <si>
+    <t>15607</t>
+  </si>
+  <si>
+    <t>-3113</t>
+  </si>
+  <si>
+    <t>-18877</t>
+  </si>
+  <si>
+    <t>2021-02-03T07:16:24.237Z</t>
+  </si>
+  <si>
+    <t>16207</t>
+  </si>
+  <si>
+    <t>-3233</t>
+  </si>
+  <si>
+    <t>-20069</t>
+  </si>
+  <si>
+    <t>2021-02-03T07:18:01.184Z</t>
+  </si>
+  <si>
+    <t>16807</t>
+  </si>
+  <si>
+    <t>-3353</t>
+  </si>
+  <si>
+    <t>-21261</t>
+  </si>
+  <si>
+    <t>2021-02-03T07:21:17.088Z</t>
+  </si>
+  <si>
+    <t>17407</t>
+  </si>
+  <si>
+    <t>-3473</t>
+  </si>
+  <si>
+    <t>-22453</t>
+  </si>
+  <si>
+    <t>2021-02-03T07:47:03.568Z</t>
+  </si>
+  <si>
+    <t>18007</t>
+  </si>
+  <si>
+    <t>-3593</t>
+  </si>
+  <si>
+    <t>1.0000</t>
+  </si>
+  <si>
+    <t>-23645</t>
+  </si>
+  <si>
+    <t>2021-02-03T07:49:37.331Z</t>
+  </si>
+  <si>
+    <t>18607</t>
+  </si>
+  <si>
+    <t>-3713</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>-24837</t>
+  </si>
+  <si>
+    <t>-173.8590</t>
+  </si>
+  <si>
+    <t>194.9978</t>
+  </si>
+  <si>
+    <t>368.8568</t>
+  </si>
+  <si>
+    <t>2021-02-03T07:50:58.311Z</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>19207</t>
+  </si>
+  <si>
+    <t>153.6560</t>
+  </si>
+  <si>
+    <t>-946.3440</t>
+  </si>
+  <si>
+    <t>-1100.0000</t>
+  </si>
+  <si>
+    <t>-3833</t>
+  </si>
+  <si>
+    <t>-34.4970</t>
+  </si>
+  <si>
+    <t>175.5030</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>4.0000</t>
   </si>
 </sst>
 </file>
@@ -740,764 +1196,8484 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="W5" t="s">
-        <v>26</v>
+        <v>26</v>
+      </c>
+      <c r="V5" s="20"/>
+      <c r="X5" t="s">
+        <v>28</v>
       </c>
       <c r="Y5" s="20"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="S6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="U6" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="V6" s="20" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="W6" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="X6" t="s">
+        <v>49</v>
       </c>
       <c r="Y6" s="20"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>56</v>
+      </c>
+      <c r="U7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V7" s="20"/>
+      <c r="X7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y7" s="20"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>26</v>
+      </c>
+      <c r="V8" s="20"/>
+      <c r="X8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" s="20"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" s="20"/>
+      <c r="X9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="20"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" t="s">
+        <v>26</v>
+      </c>
+      <c r="V10" s="20"/>
+      <c r="X10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" s="20"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U11" t="s">
+        <v>26</v>
+      </c>
+      <c r="V11" s="20"/>
+      <c r="X11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y11" s="20"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" t="s">
+        <v>26</v>
+      </c>
+      <c r="V12" s="20"/>
+      <c r="X12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y12" s="20"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>66</v>
+      </c>
+      <c r="U13" t="s">
+        <v>26</v>
+      </c>
+      <c r="V13" s="20"/>
+      <c r="X13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y13" s="20"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>67</v>
+      </c>
+      <c r="U14" t="s">
+        <v>26</v>
+      </c>
+      <c r="V14" s="20"/>
+      <c r="X14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y14" s="20"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U15" t="s">
+        <v>26</v>
+      </c>
+      <c r="V15" s="20"/>
+      <c r="X15" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y15" s="20"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>70</v>
+      </c>
+      <c r="U16" t="s">
+        <v>26</v>
+      </c>
+      <c r="V16" s="20"/>
+      <c r="X16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y16" s="20"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>71</v>
+      </c>
+      <c r="U17" t="s">
+        <v>26</v>
+      </c>
+      <c r="V17" s="20"/>
+      <c r="X17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y17" s="20"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>72</v>
+      </c>
+      <c r="U18" t="s">
+        <v>26</v>
+      </c>
+      <c r="V18" s="20"/>
+      <c r="X18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y18" s="20"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s">
+        <v>26</v>
+      </c>
+      <c r="V19" s="20"/>
+      <c r="X19" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y19" s="20"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>75</v>
+      </c>
+      <c r="U20" t="s">
+        <v>26</v>
+      </c>
+      <c r="V20" s="20"/>
+      <c r="X20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y20" s="20"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>76</v>
+      </c>
+      <c r="U21" t="s">
+        <v>26</v>
+      </c>
+      <c r="V21" s="20"/>
+      <c r="X21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y21" s="20"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>26</v>
+      </c>
+      <c r="U22" t="s">
+        <v>26</v>
+      </c>
+      <c r="V22" s="20"/>
+      <c r="X22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y22" s="20"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>77</v>
+      </c>
+      <c r="U23" t="s">
+        <v>26</v>
+      </c>
+      <c r="V23" s="20"/>
+      <c r="X23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y23" s="20"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>79</v>
+      </c>
+      <c r="U24" t="s">
+        <v>26</v>
+      </c>
+      <c r="V24" s="20"/>
+      <c r="X24" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y24" s="20"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>80</v>
+      </c>
+      <c r="U25" t="s">
+        <v>26</v>
+      </c>
+      <c r="V25" s="20"/>
+      <c r="X25" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y25" s="20"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="20"/>
+      <c r="X26" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y26" s="20"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>81</v>
+      </c>
+      <c r="U27" t="s">
+        <v>26</v>
+      </c>
+      <c r="V27" s="20"/>
+      <c r="X27" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y27" s="20"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>83</v>
+      </c>
+      <c r="U28" t="s">
+        <v>26</v>
+      </c>
+      <c r="V28" s="20"/>
+      <c r="X28" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y28" s="20"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>84</v>
+      </c>
+      <c r="U29" t="s">
+        <v>26</v>
+      </c>
+      <c r="V29" s="20"/>
+      <c r="X29" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y29" s="20"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30" t="s">
+        <v>26</v>
+      </c>
+      <c r="V30" s="20"/>
+      <c r="X30" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y30" s="20"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" t="s">
+        <v>26</v>
+      </c>
+      <c r="O31" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>85</v>
+      </c>
+      <c r="U31" t="s">
+        <v>26</v>
+      </c>
+      <c r="V31" s="20"/>
+      <c r="X31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y31" s="20"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>87</v>
+      </c>
+      <c r="U32" t="s">
+        <v>26</v>
+      </c>
+      <c r="V32" s="20"/>
+      <c r="X32" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y32" s="20"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>88</v>
+      </c>
+      <c r="U33" t="s">
+        <v>26</v>
+      </c>
+      <c r="V33" s="20"/>
+      <c r="X33" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y33" s="20"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>26</v>
+      </c>
+      <c r="U34" t="s">
+        <v>26</v>
+      </c>
+      <c r="V34" s="20"/>
+      <c r="X34" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y34" s="20"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>89</v>
+      </c>
+      <c r="U35" t="s">
+        <v>26</v>
+      </c>
+      <c r="V35" s="20"/>
+      <c r="X35" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y35" s="20"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>91</v>
+      </c>
+      <c r="U36" t="s">
+        <v>26</v>
+      </c>
+      <c r="V36" s="20"/>
+      <c r="X36" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y36" s="20"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" t="s">
+        <v>26</v>
+      </c>
+      <c r="O37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>92</v>
+      </c>
+      <c r="U37" t="s">
+        <v>26</v>
+      </c>
+      <c r="V37" s="20"/>
+      <c r="X37" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y37" s="20"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>26</v>
+      </c>
+      <c r="U38" t="s">
+        <v>26</v>
+      </c>
+      <c r="V38" s="20"/>
+      <c r="X38" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y38" s="20"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>93</v>
+      </c>
+      <c r="U39" t="s">
+        <v>26</v>
+      </c>
+      <c r="V39" s="20"/>
+      <c r="X39" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y39" s="20"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>95</v>
+      </c>
+      <c r="U40" t="s">
+        <v>26</v>
+      </c>
+      <c r="V40" s="20"/>
+      <c r="X40" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y40" s="20"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>96</v>
+      </c>
+      <c r="U41" t="s">
+        <v>26</v>
+      </c>
+      <c r="V41" s="20"/>
+      <c r="X41" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y41" s="20"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" t="s">
+        <v>26</v>
+      </c>
+      <c r="O42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>26</v>
+      </c>
+      <c r="U42" t="s">
+        <v>26</v>
+      </c>
+      <c r="V42" s="20"/>
+      <c r="X42" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y42" s="20"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="G7" t="s">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>21</v>
+      </c>
+      <c r="U43" t="s">
+        <v>26</v>
+      </c>
+      <c r="V43" s="20"/>
+      <c r="X43" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y43" s="20"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="H7" t="s">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" t="s">
+        <v>26</v>
+      </c>
+      <c r="O44" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>98</v>
+      </c>
+      <c r="U44" t="s">
+        <v>26</v>
+      </c>
+      <c r="V44" s="20"/>
+      <c r="X44" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y44" s="20"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>43</v>
       </c>
-      <c r="I7" t="s">
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>99</v>
+      </c>
+      <c r="U45" t="s">
+        <v>26</v>
+      </c>
+      <c r="V45" s="20"/>
+      <c r="X45" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y45" s="20"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>26</v>
+      </c>
+      <c r="U46" t="s">
+        <v>26</v>
+      </c>
+      <c r="V46" s="20"/>
+      <c r="X46" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y46" s="20"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" t="s">
+        <v>26</v>
+      </c>
+      <c r="O47" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>101</v>
+      </c>
+      <c r="U47" t="s">
+        <v>26</v>
+      </c>
+      <c r="V47" s="20"/>
+      <c r="X47" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y47" s="20"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
         <v>19</v>
       </c>
-      <c r="N7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>102</v>
+      </c>
+      <c r="U48" t="s">
+        <v>26</v>
+      </c>
+      <c r="V48" s="20"/>
+      <c r="X48" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y48" s="20"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" t="s">
+        <v>26</v>
+      </c>
+      <c r="O49" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>26</v>
+      </c>
+      <c r="U49" t="s">
+        <v>26</v>
+      </c>
+      <c r="V49" s="20"/>
+      <c r="X49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y49" s="20"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
         <v>19</v>
       </c>
-      <c r="P7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" t="s">
-        <v>49</v>
-      </c>
-      <c r="S7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" t="s">
+        <v>26</v>
+      </c>
+      <c r="O50" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>103</v>
+      </c>
+      <c r="U50" t="s">
+        <v>26</v>
+      </c>
+      <c r="V50" s="20"/>
+      <c r="X50" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y50" s="20"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="U7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V7" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="W7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y7" s="20"/>
-    </row>
-    <row r="8" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V8" s="20"/>
-      <c r="Y8" s="20"/>
-    </row>
-    <row r="9" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V9" s="20"/>
-      <c r="Y9" s="20"/>
-    </row>
-    <row r="10" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V10" s="20"/>
-      <c r="Y10" s="20"/>
-    </row>
-    <row r="11" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V11" s="20"/>
-      <c r="Y11" s="20"/>
-    </row>
-    <row r="12" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V12" s="20"/>
-      <c r="Y12" s="20"/>
-    </row>
-    <row r="13" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V13" s="20"/>
-      <c r="Y13" s="20"/>
-    </row>
-    <row r="14" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V14" s="20"/>
-      <c r="Y14" s="20"/>
-    </row>
-    <row r="15" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V15" s="20"/>
-      <c r="Y15" s="20"/>
-    </row>
-    <row r="16" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V16" s="20"/>
-      <c r="Y16" s="20"/>
-    </row>
-    <row r="17" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V17" s="20"/>
-      <c r="Y17" s="20"/>
-    </row>
-    <row r="18" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V18" s="20"/>
-      <c r="Y18" s="20"/>
-    </row>
-    <row r="19" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V19" s="20"/>
-      <c r="Y19" s="20"/>
-    </row>
-    <row r="20" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V20" s="20"/>
-      <c r="Y20" s="20"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V21" s="20"/>
-      <c r="Y21" s="20"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V22" s="20"/>
-      <c r="Y22" s="20"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V23" s="20"/>
-      <c r="Y23" s="20"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V24" s="20"/>
-      <c r="Y24" s="20"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V25" s="20"/>
-      <c r="Y25" s="20"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V26" s="20"/>
-      <c r="Y26" s="20"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V27" s="20"/>
-      <c r="Y27" s="20"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V28" s="20"/>
-      <c r="Y28" s="20"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V29" s="20"/>
-      <c r="Y29" s="20"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V30" s="20"/>
-      <c r="Y30" s="20"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V31" s="20"/>
-      <c r="Y31" s="20"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V32" s="20"/>
-      <c r="Y32" s="20"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V33" s="20"/>
-      <c r="Y33" s="20"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V34" s="20"/>
-      <c r="Y34" s="20"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V35" s="20"/>
-      <c r="Y35" s="20"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V36" s="20"/>
-      <c r="Y36" s="20"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V37" s="20"/>
-      <c r="Y37" s="20"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V38" s="20"/>
-      <c r="Y38" s="20"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V39" s="20"/>
-      <c r="Y39" s="20"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V40" s="20"/>
-      <c r="Y40" s="20"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V41" s="20"/>
-      <c r="Y41" s="20"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V42" s="20"/>
-      <c r="Y42" s="20"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V43" s="20"/>
-      <c r="Y43" s="20"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V44" s="20"/>
-      <c r="Y44" s="20"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V45" s="20"/>
-      <c r="Y45" s="20"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V46" s="20"/>
-      <c r="Y46" s="20"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V47" s="20"/>
-      <c r="Y47" s="20"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V48" s="20"/>
-      <c r="Y48" s="20"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V49" s="20"/>
-      <c r="Y49" s="20"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V50" s="20"/>
-      <c r="Y50" s="20"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" t="s">
+        <v>26</v>
+      </c>
+      <c r="O51" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>105</v>
+      </c>
+      <c r="U51" t="s">
+        <v>26</v>
+      </c>
       <c r="V51" s="20"/>
+      <c r="X51" t="s">
+        <v>104</v>
+      </c>
       <c r="Y51" s="20"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="52" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" t="s">
+        <v>26</v>
+      </c>
+      <c r="O52" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>106</v>
+      </c>
+      <c r="U52" t="s">
+        <v>26</v>
+      </c>
       <c r="V52" s="20"/>
+      <c r="X52" t="s">
+        <v>104</v>
+      </c>
       <c r="Y52" s="20"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="53" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>26</v>
+      </c>
+      <c r="K53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" t="s">
+        <v>26</v>
+      </c>
+      <c r="O53" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>26</v>
+      </c>
+      <c r="U53" t="s">
+        <v>26</v>
+      </c>
       <c r="V53" s="20"/>
+      <c r="X53" t="s">
+        <v>104</v>
+      </c>
       <c r="Y53" s="20"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="54" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" t="s">
+        <v>26</v>
+      </c>
+      <c r="O54" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>107</v>
+      </c>
+      <c r="U54" t="s">
+        <v>26</v>
+      </c>
       <c r="V54" s="20"/>
+      <c r="X54" t="s">
+        <v>108</v>
+      </c>
       <c r="Y54" s="20"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="55" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>105</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" t="s">
+        <v>26</v>
+      </c>
+      <c r="O55" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>109</v>
+      </c>
+      <c r="U55" t="s">
+        <v>26</v>
+      </c>
       <c r="V55" s="20"/>
+      <c r="X55" t="s">
+        <v>108</v>
+      </c>
       <c r="Y55" s="20"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="56" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" t="s">
+        <v>106</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" t="s">
+        <v>22</v>
+      </c>
+      <c r="M56" t="s">
+        <v>23</v>
+      </c>
+      <c r="N56" t="s">
+        <v>26</v>
+      </c>
+      <c r="O56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>110</v>
+      </c>
+      <c r="U56" t="s">
+        <v>26</v>
+      </c>
       <c r="V56" s="20"/>
+      <c r="X56" t="s">
+        <v>108</v>
+      </c>
       <c r="Y56" s="20"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="57" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" t="s">
+        <v>26</v>
+      </c>
+      <c r="O57" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>26</v>
+      </c>
+      <c r="U57" t="s">
+        <v>26</v>
+      </c>
       <c r="V57" s="20"/>
+      <c r="X57" t="s">
+        <v>108</v>
+      </c>
       <c r="Y57" s="20"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="58" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" t="s">
+        <v>24</v>
+      </c>
+      <c r="K58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" t="s">
+        <v>26</v>
+      </c>
+      <c r="O58" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>111</v>
+      </c>
+      <c r="U58" t="s">
+        <v>26</v>
+      </c>
       <c r="V58" s="20"/>
+      <c r="X58" t="s">
+        <v>112</v>
+      </c>
       <c r="Y58" s="20"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="59" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" t="s">
+        <v>26</v>
+      </c>
+      <c r="O59" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>113</v>
+      </c>
+      <c r="U59" t="s">
+        <v>26</v>
+      </c>
       <c r="V59" s="20"/>
+      <c r="X59" t="s">
+        <v>112</v>
+      </c>
       <c r="Y59" s="20"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="60" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>110</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M60" t="s">
+        <v>23</v>
+      </c>
+      <c r="N60" t="s">
+        <v>26</v>
+      </c>
+      <c r="O60" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>114</v>
+      </c>
+      <c r="U60" t="s">
+        <v>26</v>
+      </c>
       <c r="V60" s="20"/>
+      <c r="X60" t="s">
+        <v>112</v>
+      </c>
       <c r="Y60" s="20"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="61" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
+        <v>26</v>
+      </c>
+      <c r="K61" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>26</v>
+      </c>
+      <c r="U61" t="s">
+        <v>26</v>
+      </c>
       <c r="V61" s="20"/>
+      <c r="X61" t="s">
+        <v>112</v>
+      </c>
       <c r="Y61" s="20"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="62" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>111</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>115</v>
+      </c>
+      <c r="U62" t="s">
+        <v>26</v>
+      </c>
       <c r="V62" s="20"/>
+      <c r="X62" t="s">
+        <v>116</v>
+      </c>
       <c r="Y62" s="20"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="63" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s">
+        <v>54</v>
+      </c>
+      <c r="I63" t="s">
+        <v>55</v>
+      </c>
+      <c r="J63" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" t="s">
+        <v>26</v>
+      </c>
+      <c r="M63" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" t="s">
+        <v>26</v>
+      </c>
+      <c r="O63" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>117</v>
+      </c>
+      <c r="U63" t="s">
+        <v>26</v>
+      </c>
       <c r="V63" s="20"/>
+      <c r="X63" t="s">
+        <v>116</v>
+      </c>
       <c r="Y63" s="20"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="64" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" t="s">
+        <v>22</v>
+      </c>
+      <c r="M64" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>118</v>
+      </c>
+      <c r="U64" t="s">
+        <v>26</v>
+      </c>
       <c r="V64" s="20"/>
+      <c r="X64" t="s">
+        <v>116</v>
+      </c>
       <c r="Y64" s="20"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="65" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
+        <v>26</v>
+      </c>
+      <c r="K65" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" t="s">
+        <v>26</v>
+      </c>
+      <c r="M65" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" t="s">
+        <v>26</v>
+      </c>
+      <c r="O65" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>26</v>
+      </c>
+      <c r="U65" t="s">
+        <v>26</v>
+      </c>
       <c r="V65" s="20"/>
+      <c r="X65" t="s">
+        <v>116</v>
+      </c>
       <c r="Y65" s="20"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="66" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
+        <v>115</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" t="s">
+        <v>25</v>
+      </c>
+      <c r="L66" t="s">
+        <v>26</v>
+      </c>
+      <c r="M66" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" t="s">
+        <v>26</v>
+      </c>
+      <c r="O66" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>119</v>
+      </c>
+      <c r="U66" t="s">
+        <v>26</v>
+      </c>
       <c r="V66" s="20"/>
+      <c r="X66" t="s">
+        <v>120</v>
+      </c>
       <c r="Y66" s="20"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="67" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>117</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" t="s">
+        <v>54</v>
+      </c>
+      <c r="I67" t="s">
+        <v>55</v>
+      </c>
+      <c r="J67" t="s">
+        <v>26</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" t="s">
+        <v>26</v>
+      </c>
+      <c r="M67" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" t="s">
+        <v>26</v>
+      </c>
+      <c r="O67" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>121</v>
+      </c>
+      <c r="U67" t="s">
+        <v>26</v>
+      </c>
       <c r="V67" s="20"/>
+      <c r="X67" t="s">
+        <v>120</v>
+      </c>
       <c r="Y67" s="20"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="68" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>118</v>
+      </c>
+      <c r="G68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
+        <v>26</v>
+      </c>
+      <c r="K68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" t="s">
+        <v>22</v>
+      </c>
+      <c r="M68" t="s">
+        <v>23</v>
+      </c>
+      <c r="N68" t="s">
+        <v>26</v>
+      </c>
+      <c r="O68" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>122</v>
+      </c>
+      <c r="U68" t="s">
+        <v>26</v>
+      </c>
       <c r="V68" s="20"/>
+      <c r="X68" t="s">
+        <v>120</v>
+      </c>
       <c r="Y68" s="20"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="69" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s">
+        <v>26</v>
+      </c>
+      <c r="K69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" t="s">
+        <v>26</v>
+      </c>
+      <c r="M69" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>26</v>
+      </c>
+      <c r="U69" t="s">
+        <v>26</v>
+      </c>
       <c r="V69" s="20"/>
+      <c r="X69" t="s">
+        <v>120</v>
+      </c>
       <c r="Y69" s="20"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="70" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" t="s">
+        <v>119</v>
+      </c>
+      <c r="G70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" t="s">
+        <v>26</v>
+      </c>
+      <c r="M70" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" t="s">
+        <v>26</v>
+      </c>
+      <c r="O70" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>123</v>
+      </c>
+      <c r="U70" t="s">
+        <v>26</v>
+      </c>
       <c r="V70" s="20"/>
+      <c r="X70" t="s">
+        <v>124</v>
+      </c>
       <c r="Y70" s="20"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="71" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" t="s">
+        <v>121</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" t="s">
+        <v>54</v>
+      </c>
+      <c r="I71" t="s">
+        <v>55</v>
+      </c>
+      <c r="J71" t="s">
+        <v>26</v>
+      </c>
+      <c r="K71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" t="s">
+        <v>26</v>
+      </c>
+      <c r="M71" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O71" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>125</v>
+      </c>
+      <c r="U71" t="s">
+        <v>26</v>
+      </c>
       <c r="V71" s="20"/>
+      <c r="X71" t="s">
+        <v>124</v>
+      </c>
       <c r="Y71" s="20"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="72" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
+        <v>122</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s">
+        <v>26</v>
+      </c>
+      <c r="K72" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M72" t="s">
+        <v>23</v>
+      </c>
+      <c r="N72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O72" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>126</v>
+      </c>
+      <c r="U72" t="s">
+        <v>26</v>
+      </c>
       <c r="V72" s="20"/>
+      <c r="X72" t="s">
+        <v>124</v>
+      </c>
       <c r="Y72" s="20"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="73" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
+        <v>26</v>
+      </c>
+      <c r="K73" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" t="s">
+        <v>26</v>
+      </c>
+      <c r="M73" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" t="s">
+        <v>26</v>
+      </c>
+      <c r="O73" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>26</v>
+      </c>
+      <c r="U73" t="s">
+        <v>26</v>
+      </c>
       <c r="V73" s="20"/>
+      <c r="X73" t="s">
+        <v>124</v>
+      </c>
       <c r="Y73" s="20"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="74" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" t="s">
+        <v>123</v>
+      </c>
+      <c r="G74" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" t="s">
+        <v>23</v>
+      </c>
+      <c r="J74" t="s">
+        <v>24</v>
+      </c>
+      <c r="K74" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74" t="s">
+        <v>26</v>
+      </c>
+      <c r="M74" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" t="s">
+        <v>26</v>
+      </c>
+      <c r="O74" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>127</v>
+      </c>
+      <c r="U74" t="s">
+        <v>26</v>
+      </c>
       <c r="V74" s="20"/>
+      <c r="X74" t="s">
+        <v>128</v>
+      </c>
       <c r="Y74" s="20"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="75" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" t="s">
+        <v>125</v>
+      </c>
+      <c r="G75" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" t="s">
+        <v>54</v>
+      </c>
+      <c r="I75" t="s">
+        <v>55</v>
+      </c>
+      <c r="J75" t="s">
+        <v>26</v>
+      </c>
+      <c r="K75" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" t="s">
+        <v>26</v>
+      </c>
+      <c r="M75" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" t="s">
+        <v>26</v>
+      </c>
+      <c r="O75" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>129</v>
+      </c>
+      <c r="U75" t="s">
+        <v>26</v>
+      </c>
       <c r="V75" s="20"/>
+      <c r="X75" t="s">
+        <v>128</v>
+      </c>
       <c r="Y75" s="20"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="76" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" t="s">
+        <v>126</v>
+      </c>
+      <c r="G76" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s">
+        <v>26</v>
+      </c>
+      <c r="K76" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M76" t="s">
+        <v>23</v>
+      </c>
+      <c r="N76" t="s">
+        <v>26</v>
+      </c>
+      <c r="O76" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>130</v>
+      </c>
+      <c r="U76" t="s">
+        <v>26</v>
+      </c>
       <c r="V76" s="20"/>
+      <c r="X76" t="s">
+        <v>128</v>
+      </c>
       <c r="Y76" s="20"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="77" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s">
+        <v>26</v>
+      </c>
+      <c r="K77" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" t="s">
+        <v>26</v>
+      </c>
+      <c r="M77" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" t="s">
+        <v>26</v>
+      </c>
+      <c r="O77" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>26</v>
+      </c>
+      <c r="U77" t="s">
+        <v>26</v>
+      </c>
       <c r="V77" s="20"/>
+      <c r="X77" t="s">
+        <v>128</v>
+      </c>
       <c r="Y77" s="20"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="78" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>131</v>
+      </c>
+      <c r="D78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s">
+        <v>26</v>
+      </c>
+      <c r="K78" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" t="s">
+        <v>26</v>
+      </c>
+      <c r="M78" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78" t="s">
+        <v>26</v>
+      </c>
+      <c r="O78" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>26</v>
+      </c>
+      <c r="U78" t="s">
+        <v>26</v>
+      </c>
       <c r="V78" s="20"/>
+      <c r="X78" t="s">
+        <v>128</v>
+      </c>
       <c r="Y78" s="20"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="79" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" t="s">
+        <v>127</v>
+      </c>
+      <c r="G79" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" t="s">
+        <v>23</v>
+      </c>
+      <c r="J79" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79" t="s">
+        <v>25</v>
+      </c>
+      <c r="L79" t="s">
+        <v>26</v>
+      </c>
+      <c r="M79" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79" t="s">
+        <v>26</v>
+      </c>
+      <c r="O79" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>132</v>
+      </c>
+      <c r="U79" t="s">
+        <v>26</v>
+      </c>
       <c r="V79" s="20"/>
+      <c r="X79" t="s">
+        <v>133</v>
+      </c>
       <c r="Y79" s="20"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="80" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" t="s">
+        <v>129</v>
+      </c>
+      <c r="G80" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" t="s">
+        <v>54</v>
+      </c>
+      <c r="I80" t="s">
+        <v>55</v>
+      </c>
+      <c r="J80" t="s">
+        <v>26</v>
+      </c>
+      <c r="K80" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" t="s">
+        <v>26</v>
+      </c>
+      <c r="M80" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" t="s">
+        <v>26</v>
+      </c>
+      <c r="O80" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>134</v>
+      </c>
+      <c r="U80" t="s">
+        <v>26</v>
+      </c>
       <c r="V80" s="20"/>
+      <c r="X80" t="s">
+        <v>133</v>
+      </c>
       <c r="Y80" s="20"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="81" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" t="s">
+        <v>130</v>
+      </c>
+      <c r="G81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s">
+        <v>26</v>
+      </c>
+      <c r="K81" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" t="s">
+        <v>22</v>
+      </c>
+      <c r="M81" t="s">
+        <v>23</v>
+      </c>
+      <c r="N81" t="s">
+        <v>26</v>
+      </c>
+      <c r="O81" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>135</v>
+      </c>
+      <c r="U81" t="s">
+        <v>26</v>
+      </c>
       <c r="V81" s="20"/>
+      <c r="X81" t="s">
+        <v>133</v>
+      </c>
       <c r="Y81" s="20"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="82" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s">
+        <v>26</v>
+      </c>
+      <c r="K82" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" t="s">
+        <v>26</v>
+      </c>
+      <c r="M82" t="s">
+        <v>20</v>
+      </c>
+      <c r="N82" t="s">
+        <v>26</v>
+      </c>
+      <c r="O82" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>26</v>
+      </c>
+      <c r="U82" t="s">
+        <v>26</v>
+      </c>
       <c r="V82" s="20"/>
+      <c r="X82" t="s">
+        <v>133</v>
+      </c>
       <c r="Y82" s="20"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="83" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" t="s">
+        <v>26</v>
+      </c>
+      <c r="K83" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" t="s">
+        <v>26</v>
+      </c>
+      <c r="M83" t="s">
+        <v>20</v>
+      </c>
+      <c r="N83" t="s">
+        <v>26</v>
+      </c>
+      <c r="O83" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>26</v>
+      </c>
+      <c r="U83" t="s">
+        <v>26</v>
+      </c>
       <c r="V83" s="20"/>
+      <c r="X83" t="s">
+        <v>133</v>
+      </c>
       <c r="Y83" s="20"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="84" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" t="s">
+        <v>132</v>
+      </c>
+      <c r="G84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" t="s">
+        <v>23</v>
+      </c>
+      <c r="J84" t="s">
+        <v>136</v>
+      </c>
+      <c r="K84" t="s">
+        <v>137</v>
+      </c>
+      <c r="L84" t="s">
+        <v>26</v>
+      </c>
+      <c r="M84" t="s">
+        <v>20</v>
+      </c>
+      <c r="N84" t="s">
+        <v>26</v>
+      </c>
+      <c r="O84" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>138</v>
+      </c>
+      <c r="U84" t="s">
+        <v>26</v>
+      </c>
       <c r="V84" s="20"/>
+      <c r="X84" t="s">
+        <v>139</v>
+      </c>
       <c r="Y84" s="20"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="85" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" t="s">
+        <v>134</v>
+      </c>
+      <c r="G85" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" t="s">
+        <v>54</v>
+      </c>
+      <c r="I85" t="s">
+        <v>55</v>
+      </c>
+      <c r="J85" t="s">
+        <v>26</v>
+      </c>
+      <c r="K85" t="s">
+        <v>20</v>
+      </c>
+      <c r="L85" t="s">
+        <v>26</v>
+      </c>
+      <c r="M85" t="s">
+        <v>20</v>
+      </c>
+      <c r="N85" t="s">
+        <v>26</v>
+      </c>
+      <c r="O85" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>140</v>
+      </c>
+      <c r="U85" t="s">
+        <v>26</v>
+      </c>
       <c r="V85" s="20"/>
+      <c r="X85" t="s">
+        <v>139</v>
+      </c>
       <c r="Y85" s="20"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="86" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" t="s">
+        <v>135</v>
+      </c>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K86" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" t="s">
+        <v>22</v>
+      </c>
+      <c r="M86" t="s">
+        <v>23</v>
+      </c>
+      <c r="N86" t="s">
+        <v>26</v>
+      </c>
+      <c r="O86" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>141</v>
+      </c>
+      <c r="U86" t="s">
+        <v>26</v>
+      </c>
       <c r="V86" s="20"/>
+      <c r="X86" t="s">
+        <v>139</v>
+      </c>
       <c r="Y86" s="20"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="87" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K87" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87" t="s">
+        <v>26</v>
+      </c>
+      <c r="M87" t="s">
+        <v>20</v>
+      </c>
+      <c r="N87" t="s">
+        <v>26</v>
+      </c>
+      <c r="O87" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>26</v>
+      </c>
+      <c r="U87" t="s">
+        <v>26</v>
+      </c>
       <c r="V87" s="20"/>
+      <c r="X87" t="s">
+        <v>139</v>
+      </c>
       <c r="Y87" s="20"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="88" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" t="s">
+        <v>26</v>
+      </c>
+      <c r="K88" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" t="s">
+        <v>26</v>
+      </c>
+      <c r="M88" t="s">
+        <v>20</v>
+      </c>
+      <c r="N88" t="s">
+        <v>26</v>
+      </c>
+      <c r="O88" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>26</v>
+      </c>
+      <c r="U88" t="s">
+        <v>26</v>
+      </c>
       <c r="V88" s="20"/>
+      <c r="X88" t="s">
+        <v>139</v>
+      </c>
       <c r="Y88" s="20"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="89" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>118</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" t="s">
+        <v>138</v>
+      </c>
+      <c r="G89" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" t="s">
+        <v>23</v>
+      </c>
+      <c r="J89" t="s">
+        <v>136</v>
+      </c>
+      <c r="K89" t="s">
+        <v>137</v>
+      </c>
+      <c r="L89" t="s">
+        <v>26</v>
+      </c>
+      <c r="M89" t="s">
+        <v>20</v>
+      </c>
+      <c r="N89" t="s">
+        <v>26</v>
+      </c>
+      <c r="O89" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>142</v>
+      </c>
+      <c r="U89" t="s">
+        <v>26</v>
+      </c>
       <c r="V89" s="20"/>
+      <c r="X89" t="s">
+        <v>143</v>
+      </c>
       <c r="Y89" s="20"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="90" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>119</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" t="s">
+        <v>140</v>
+      </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" t="s">
+        <v>54</v>
+      </c>
+      <c r="I90" t="s">
+        <v>55</v>
+      </c>
+      <c r="J90" t="s">
+        <v>26</v>
+      </c>
+      <c r="K90" t="s">
+        <v>20</v>
+      </c>
+      <c r="L90" t="s">
+        <v>26</v>
+      </c>
+      <c r="M90" t="s">
+        <v>20</v>
+      </c>
+      <c r="N90" t="s">
+        <v>26</v>
+      </c>
+      <c r="O90" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>144</v>
+      </c>
+      <c r="U90" t="s">
+        <v>26</v>
+      </c>
       <c r="V90" s="20"/>
+      <c r="X90" t="s">
+        <v>143</v>
+      </c>
       <c r="Y90" s="20"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="91" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>120</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" t="s">
+        <v>141</v>
+      </c>
+      <c r="G91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" t="s">
+        <v>26</v>
+      </c>
+      <c r="K91" t="s">
+        <v>20</v>
+      </c>
+      <c r="L91" t="s">
+        <v>22</v>
+      </c>
+      <c r="M91" t="s">
+        <v>23</v>
+      </c>
+      <c r="N91" t="s">
+        <v>26</v>
+      </c>
+      <c r="O91" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>145</v>
+      </c>
+      <c r="U91" t="s">
+        <v>26</v>
+      </c>
       <c r="V91" s="20"/>
+      <c r="X91" t="s">
+        <v>143</v>
+      </c>
       <c r="Y91" s="20"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="92" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>121</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" t="s">
+        <v>26</v>
+      </c>
+      <c r="K92" t="s">
+        <v>20</v>
+      </c>
+      <c r="L92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M92" t="s">
+        <v>20</v>
+      </c>
+      <c r="N92" t="s">
+        <v>26</v>
+      </c>
+      <c r="O92" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>26</v>
+      </c>
+      <c r="U92" t="s">
+        <v>26</v>
+      </c>
       <c r="V92" s="20"/>
+      <c r="X92" t="s">
+        <v>143</v>
+      </c>
       <c r="Y92" s="20"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="93" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>122</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" t="s">
+        <v>26</v>
+      </c>
+      <c r="K93" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" t="s">
+        <v>26</v>
+      </c>
+      <c r="M93" t="s">
+        <v>20</v>
+      </c>
+      <c r="N93" t="s">
+        <v>26</v>
+      </c>
+      <c r="O93" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>26</v>
+      </c>
+      <c r="U93" t="s">
+        <v>26</v>
+      </c>
       <c r="V93" s="20"/>
+      <c r="X93" t="s">
+        <v>143</v>
+      </c>
       <c r="Y93" s="20"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="94" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>123</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" t="s">
+        <v>142</v>
+      </c>
+      <c r="G94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" t="s">
+        <v>22</v>
+      </c>
+      <c r="I94" t="s">
+        <v>23</v>
+      </c>
+      <c r="J94" t="s">
+        <v>136</v>
+      </c>
+      <c r="K94" t="s">
+        <v>137</v>
+      </c>
+      <c r="L94" t="s">
+        <v>26</v>
+      </c>
+      <c r="M94" t="s">
+        <v>20</v>
+      </c>
+      <c r="N94" t="s">
+        <v>26</v>
+      </c>
+      <c r="O94" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>146</v>
+      </c>
+      <c r="U94" t="s">
+        <v>26</v>
+      </c>
       <c r="V94" s="20"/>
+      <c r="X94" t="s">
+        <v>147</v>
+      </c>
       <c r="Y94" s="20"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="95" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>124</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" t="s">
+        <v>144</v>
+      </c>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" t="s">
+        <v>54</v>
+      </c>
+      <c r="I95" t="s">
+        <v>55</v>
+      </c>
+      <c r="J95" t="s">
+        <v>26</v>
+      </c>
+      <c r="K95" t="s">
+        <v>20</v>
+      </c>
+      <c r="L95" t="s">
+        <v>26</v>
+      </c>
+      <c r="M95" t="s">
+        <v>20</v>
+      </c>
+      <c r="N95" t="s">
+        <v>26</v>
+      </c>
+      <c r="O95" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>148</v>
+      </c>
+      <c r="U95" t="s">
+        <v>26</v>
+      </c>
       <c r="V95" s="20"/>
+      <c r="X95" t="s">
+        <v>147</v>
+      </c>
       <c r="Y95" s="20"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="96" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>125</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" t="s">
+        <v>145</v>
+      </c>
+      <c r="G96" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s">
+        <v>26</v>
+      </c>
+      <c r="K96" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" t="s">
+        <v>22</v>
+      </c>
+      <c r="M96" t="s">
+        <v>23</v>
+      </c>
+      <c r="N96" t="s">
+        <v>26</v>
+      </c>
+      <c r="O96" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>149</v>
+      </c>
+      <c r="U96" t="s">
+        <v>26</v>
+      </c>
       <c r="V96" s="20"/>
+      <c r="X96" t="s">
+        <v>147</v>
+      </c>
       <c r="Y96" s="20"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="97" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>126</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" t="s">
+        <v>26</v>
+      </c>
+      <c r="K97" t="s">
+        <v>20</v>
+      </c>
+      <c r="L97" t="s">
+        <v>26</v>
+      </c>
+      <c r="M97" t="s">
+        <v>20</v>
+      </c>
+      <c r="N97" t="s">
+        <v>26</v>
+      </c>
+      <c r="O97" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>26</v>
+      </c>
+      <c r="U97" t="s">
+        <v>26</v>
+      </c>
       <c r="V97" s="20"/>
+      <c r="X97" t="s">
+        <v>147</v>
+      </c>
       <c r="Y97" s="20"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="98" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>127</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" t="s">
+        <v>26</v>
+      </c>
+      <c r="K98" t="s">
+        <v>20</v>
+      </c>
+      <c r="L98" t="s">
+        <v>26</v>
+      </c>
+      <c r="M98" t="s">
+        <v>20</v>
+      </c>
+      <c r="N98" t="s">
+        <v>26</v>
+      </c>
+      <c r="O98" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>26</v>
+      </c>
+      <c r="U98" t="s">
+        <v>26</v>
+      </c>
       <c r="V98" s="20"/>
+      <c r="X98" t="s">
+        <v>147</v>
+      </c>
       <c r="Y98" s="20"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="99" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" t="s">
+        <v>146</v>
+      </c>
+      <c r="G99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" t="s">
+        <v>23</v>
+      </c>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+      <c r="K99" t="s">
+        <v>137</v>
+      </c>
+      <c r="L99" t="s">
+        <v>26</v>
+      </c>
+      <c r="M99" t="s">
+        <v>20</v>
+      </c>
+      <c r="N99" t="s">
+        <v>26</v>
+      </c>
+      <c r="O99" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>150</v>
+      </c>
+      <c r="U99" t="s">
+        <v>26</v>
+      </c>
       <c r="V99" s="20"/>
+      <c r="X99" t="s">
+        <v>151</v>
+      </c>
       <c r="Y99" s="20"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="100" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>129</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" t="s">
+        <v>30</v>
+      </c>
+      <c r="E100" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" t="s">
+        <v>148</v>
+      </c>
+      <c r="G100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" t="s">
+        <v>54</v>
+      </c>
+      <c r="I100" t="s">
+        <v>55</v>
+      </c>
+      <c r="J100" t="s">
+        <v>26</v>
+      </c>
+      <c r="K100" t="s">
+        <v>20</v>
+      </c>
+      <c r="L100" t="s">
+        <v>26</v>
+      </c>
+      <c r="M100" t="s">
+        <v>20</v>
+      </c>
+      <c r="N100" t="s">
+        <v>26</v>
+      </c>
+      <c r="O100" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>152</v>
+      </c>
+      <c r="U100" t="s">
+        <v>26</v>
+      </c>
       <c r="V100" s="20"/>
+      <c r="X100" t="s">
+        <v>151</v>
+      </c>
       <c r="Y100" s="20"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="101" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>130</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>61</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" t="s">
+        <v>149</v>
+      </c>
+      <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" t="s">
+        <v>26</v>
+      </c>
+      <c r="I101" t="s">
+        <v>20</v>
+      </c>
+      <c r="J101" t="s">
+        <v>26</v>
+      </c>
+      <c r="K101" t="s">
+        <v>20</v>
+      </c>
+      <c r="L101" t="s">
+        <v>22</v>
+      </c>
+      <c r="M101" t="s">
+        <v>23</v>
+      </c>
+      <c r="N101" t="s">
+        <v>26</v>
+      </c>
+      <c r="O101" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>153</v>
+      </c>
+      <c r="U101" t="s">
+        <v>26</v>
+      </c>
       <c r="V101" s="20"/>
+      <c r="X101" t="s">
+        <v>151</v>
+      </c>
       <c r="Y101" s="20"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="102" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>131</v>
+      </c>
+      <c r="B102">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" t="s">
+        <v>20</v>
+      </c>
+      <c r="F102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I102" t="s">
+        <v>20</v>
+      </c>
+      <c r="J102" t="s">
+        <v>26</v>
+      </c>
+      <c r="K102" t="s">
+        <v>20</v>
+      </c>
+      <c r="L102" t="s">
+        <v>26</v>
+      </c>
+      <c r="M102" t="s">
+        <v>20</v>
+      </c>
+      <c r="N102" t="s">
+        <v>26</v>
+      </c>
+      <c r="O102" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>26</v>
+      </c>
+      <c r="U102" t="s">
+        <v>26</v>
+      </c>
       <c r="V102" s="20"/>
+      <c r="X102" t="s">
+        <v>151</v>
+      </c>
       <c r="Y102" s="20"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="103" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>132</v>
+      </c>
+      <c r="B103">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103" t="s">
+        <v>20</v>
+      </c>
+      <c r="J103" t="s">
+        <v>26</v>
+      </c>
+      <c r="K103" t="s">
+        <v>20</v>
+      </c>
+      <c r="L103" t="s">
+        <v>26</v>
+      </c>
+      <c r="M103" t="s">
+        <v>20</v>
+      </c>
+      <c r="N103" t="s">
+        <v>26</v>
+      </c>
+      <c r="O103" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>26</v>
+      </c>
+      <c r="U103" t="s">
+        <v>26</v>
+      </c>
       <c r="V103" s="20"/>
+      <c r="X103" t="s">
+        <v>151</v>
+      </c>
       <c r="Y103" s="20"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="104" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>133</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" t="s">
+        <v>150</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>22</v>
+      </c>
+      <c r="I104" t="s">
+        <v>23</v>
+      </c>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+      <c r="K104" t="s">
+        <v>137</v>
+      </c>
+      <c r="L104" t="s">
+        <v>26</v>
+      </c>
+      <c r="M104" t="s">
+        <v>20</v>
+      </c>
+      <c r="N104" t="s">
+        <v>26</v>
+      </c>
+      <c r="O104" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>154</v>
+      </c>
+      <c r="U104" t="s">
+        <v>26</v>
+      </c>
       <c r="V104" s="20"/>
+      <c r="X104" t="s">
+        <v>155</v>
+      </c>
       <c r="Y104" s="20"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="105" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>134</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" t="s">
+        <v>152</v>
+      </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" t="s">
+        <v>54</v>
+      </c>
+      <c r="I105" t="s">
+        <v>55</v>
+      </c>
+      <c r="J105" t="s">
+        <v>26</v>
+      </c>
+      <c r="K105" t="s">
+        <v>20</v>
+      </c>
+      <c r="L105" t="s">
+        <v>26</v>
+      </c>
+      <c r="M105" t="s">
+        <v>20</v>
+      </c>
+      <c r="N105" t="s">
+        <v>26</v>
+      </c>
+      <c r="O105" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>156</v>
+      </c>
+      <c r="U105" t="s">
+        <v>26</v>
+      </c>
       <c r="V105" s="20"/>
+      <c r="X105" t="s">
+        <v>155</v>
+      </c>
       <c r="Y105" s="20"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="106" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>135</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>61</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" t="s">
+        <v>153</v>
+      </c>
+      <c r="G106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106" t="s">
+        <v>26</v>
+      </c>
+      <c r="K106" t="s">
+        <v>20</v>
+      </c>
+      <c r="L106" t="s">
+        <v>22</v>
+      </c>
+      <c r="M106" t="s">
+        <v>23</v>
+      </c>
+      <c r="N106" t="s">
+        <v>26</v>
+      </c>
+      <c r="O106" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>157</v>
+      </c>
+      <c r="U106" t="s">
+        <v>26</v>
+      </c>
       <c r="V106" s="20"/>
+      <c r="X106" t="s">
+        <v>155</v>
+      </c>
       <c r="Y106" s="20"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="107" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>136</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>100</v>
+      </c>
+      <c r="D107" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" t="s">
+        <v>26</v>
+      </c>
+      <c r="I107" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" t="s">
+        <v>26</v>
+      </c>
+      <c r="K107" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107" t="s">
+        <v>26</v>
+      </c>
+      <c r="M107" t="s">
+        <v>20</v>
+      </c>
+      <c r="N107" t="s">
+        <v>26</v>
+      </c>
+      <c r="O107" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>26</v>
+      </c>
+      <c r="U107" t="s">
+        <v>26</v>
+      </c>
       <c r="V107" s="20"/>
+      <c r="X107" t="s">
+        <v>155</v>
+      </c>
       <c r="Y107" s="20"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="108" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>137</v>
+      </c>
+      <c r="B108">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" t="s">
+        <v>20</v>
+      </c>
+      <c r="J108" t="s">
+        <v>26</v>
+      </c>
+      <c r="K108" t="s">
+        <v>20</v>
+      </c>
+      <c r="L108" t="s">
+        <v>26</v>
+      </c>
+      <c r="M108" t="s">
+        <v>20</v>
+      </c>
+      <c r="N108" t="s">
+        <v>26</v>
+      </c>
+      <c r="O108" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>26</v>
+      </c>
+      <c r="U108" t="s">
+        <v>26</v>
+      </c>
       <c r="V108" s="20"/>
+      <c r="X108" t="s">
+        <v>155</v>
+      </c>
       <c r="Y108" s="20"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="109" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>138</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109" t="s">
+        <v>154</v>
+      </c>
+      <c r="G109" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" t="s">
+        <v>22</v>
+      </c>
+      <c r="I109" t="s">
+        <v>23</v>
+      </c>
+      <c r="J109" t="s">
+        <v>136</v>
+      </c>
+      <c r="K109" t="s">
+        <v>137</v>
+      </c>
+      <c r="L109" t="s">
+        <v>26</v>
+      </c>
+      <c r="M109" t="s">
+        <v>20</v>
+      </c>
+      <c r="N109" t="s">
+        <v>26</v>
+      </c>
+      <c r="O109" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>158</v>
+      </c>
+      <c r="U109" t="s">
+        <v>26</v>
+      </c>
       <c r="V109" s="20"/>
+      <c r="X109" t="s">
+        <v>159</v>
+      </c>
       <c r="Y109" s="20"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="110" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>139</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" t="s">
+        <v>156</v>
+      </c>
+      <c r="G110" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" t="s">
+        <v>54</v>
+      </c>
+      <c r="I110" t="s">
+        <v>55</v>
+      </c>
+      <c r="J110" t="s">
+        <v>26</v>
+      </c>
+      <c r="K110" t="s">
+        <v>20</v>
+      </c>
+      <c r="L110" t="s">
+        <v>26</v>
+      </c>
+      <c r="M110" t="s">
+        <v>20</v>
+      </c>
+      <c r="N110" t="s">
+        <v>26</v>
+      </c>
+      <c r="O110" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>160</v>
+      </c>
+      <c r="U110" t="s">
+        <v>26</v>
+      </c>
       <c r="V110" s="20"/>
+      <c r="X110" t="s">
+        <v>159</v>
+      </c>
       <c r="Y110" s="20"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="111" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>140</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" t="s">
+        <v>157</v>
+      </c>
+      <c r="G111" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" t="s">
+        <v>20</v>
+      </c>
+      <c r="J111" t="s">
+        <v>26</v>
+      </c>
+      <c r="K111" t="s">
+        <v>20</v>
+      </c>
+      <c r="L111" t="s">
+        <v>22</v>
+      </c>
+      <c r="M111" t="s">
+        <v>23</v>
+      </c>
+      <c r="N111" t="s">
+        <v>26</v>
+      </c>
+      <c r="O111" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>161</v>
+      </c>
+      <c r="U111" t="s">
+        <v>26</v>
+      </c>
       <c r="V111" s="20"/>
+      <c r="X111" t="s">
+        <v>159</v>
+      </c>
       <c r="Y111" s="20"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="112" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>141</v>
+      </c>
+      <c r="B112">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>100</v>
+      </c>
+      <c r="D112" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" t="s">
+        <v>26</v>
+      </c>
+      <c r="I112" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112" t="s">
+        <v>26</v>
+      </c>
+      <c r="K112" t="s">
+        <v>20</v>
+      </c>
+      <c r="L112" t="s">
+        <v>26</v>
+      </c>
+      <c r="M112" t="s">
+        <v>20</v>
+      </c>
+      <c r="N112" t="s">
+        <v>26</v>
+      </c>
+      <c r="O112" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>26</v>
+      </c>
+      <c r="U112" t="s">
+        <v>26</v>
+      </c>
       <c r="V112" s="20"/>
+      <c r="X112" t="s">
+        <v>159</v>
+      </c>
       <c r="Y112" s="20"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="113" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>142</v>
+      </c>
+      <c r="B113">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>131</v>
+      </c>
+      <c r="D113" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" t="s">
+        <v>26</v>
+      </c>
+      <c r="I113" t="s">
+        <v>20</v>
+      </c>
+      <c r="J113" t="s">
+        <v>26</v>
+      </c>
+      <c r="K113" t="s">
+        <v>20</v>
+      </c>
+      <c r="L113" t="s">
+        <v>26</v>
+      </c>
+      <c r="M113" t="s">
+        <v>20</v>
+      </c>
+      <c r="N113" t="s">
+        <v>26</v>
+      </c>
+      <c r="O113" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>26</v>
+      </c>
+      <c r="U113" t="s">
+        <v>26</v>
+      </c>
       <c r="V113" s="20"/>
+      <c r="X113" t="s">
+        <v>159</v>
+      </c>
       <c r="Y113" s="20"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="114" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>143</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" t="s">
+        <v>158</v>
+      </c>
+      <c r="G114" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" t="s">
+        <v>22</v>
+      </c>
+      <c r="I114" t="s">
+        <v>23</v>
+      </c>
+      <c r="J114" t="s">
+        <v>136</v>
+      </c>
+      <c r="K114" t="s">
+        <v>137</v>
+      </c>
+      <c r="L114" t="s">
+        <v>26</v>
+      </c>
+      <c r="M114" t="s">
+        <v>20</v>
+      </c>
+      <c r="N114" t="s">
+        <v>26</v>
+      </c>
+      <c r="O114" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>162</v>
+      </c>
+      <c r="U114" t="s">
+        <v>26</v>
+      </c>
       <c r="V114" s="20"/>
+      <c r="X114" t="s">
+        <v>163</v>
+      </c>
       <c r="Y114" s="20"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="115" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>144</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115" t="s">
+        <v>160</v>
+      </c>
+      <c r="G115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" t="s">
+        <v>54</v>
+      </c>
+      <c r="I115" t="s">
+        <v>55</v>
+      </c>
+      <c r="J115" t="s">
+        <v>26</v>
+      </c>
+      <c r="K115" t="s">
+        <v>20</v>
+      </c>
+      <c r="L115" t="s">
+        <v>26</v>
+      </c>
+      <c r="M115" t="s">
+        <v>20</v>
+      </c>
+      <c r="N115" t="s">
+        <v>26</v>
+      </c>
+      <c r="O115" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>164</v>
+      </c>
+      <c r="U115" t="s">
+        <v>26</v>
+      </c>
       <c r="V115" s="20"/>
+      <c r="X115" t="s">
+        <v>163</v>
+      </c>
       <c r="Y115" s="20"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="116" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>145</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>61</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116" t="s">
+        <v>161</v>
+      </c>
+      <c r="G116" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" t="s">
+        <v>20</v>
+      </c>
+      <c r="J116" t="s">
+        <v>26</v>
+      </c>
+      <c r="K116" t="s">
+        <v>20</v>
+      </c>
+      <c r="L116" t="s">
+        <v>22</v>
+      </c>
+      <c r="M116" t="s">
+        <v>23</v>
+      </c>
+      <c r="N116" t="s">
+        <v>26</v>
+      </c>
+      <c r="O116" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>165</v>
+      </c>
+      <c r="U116" t="s">
+        <v>26</v>
+      </c>
       <c r="V116" s="20"/>
+      <c r="X116" t="s">
+        <v>163</v>
+      </c>
       <c r="Y116" s="20"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="117" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>146</v>
+      </c>
+      <c r="B117">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>100</v>
+      </c>
+      <c r="D117" t="s">
+        <v>30</v>
+      </c>
+      <c r="E117" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" t="s">
+        <v>26</v>
+      </c>
+      <c r="I117" t="s">
+        <v>20</v>
+      </c>
+      <c r="J117" t="s">
+        <v>26</v>
+      </c>
+      <c r="K117" t="s">
+        <v>20</v>
+      </c>
+      <c r="L117" t="s">
+        <v>26</v>
+      </c>
+      <c r="M117" t="s">
+        <v>20</v>
+      </c>
+      <c r="N117" t="s">
+        <v>26</v>
+      </c>
+      <c r="O117" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>26</v>
+      </c>
+      <c r="U117" t="s">
+        <v>26</v>
+      </c>
       <c r="V117" s="20"/>
+      <c r="X117" t="s">
+        <v>163</v>
+      </c>
       <c r="Y117" s="20"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="118" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>147</v>
+      </c>
+      <c r="B118">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" t="s">
+        <v>26</v>
+      </c>
+      <c r="I118" t="s">
+        <v>20</v>
+      </c>
+      <c r="J118" t="s">
+        <v>26</v>
+      </c>
+      <c r="K118" t="s">
+        <v>20</v>
+      </c>
+      <c r="L118" t="s">
+        <v>26</v>
+      </c>
+      <c r="M118" t="s">
+        <v>20</v>
+      </c>
+      <c r="N118" t="s">
+        <v>26</v>
+      </c>
+      <c r="O118" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>26</v>
+      </c>
+      <c r="U118" t="s">
+        <v>26</v>
+      </c>
       <c r="V118" s="20"/>
+      <c r="X118" t="s">
+        <v>163</v>
+      </c>
       <c r="Y118" s="20"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="119" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>148</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119" t="s">
+        <v>162</v>
+      </c>
+      <c r="G119" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" t="s">
+        <v>22</v>
+      </c>
+      <c r="I119" t="s">
+        <v>23</v>
+      </c>
+      <c r="J119" t="s">
+        <v>136</v>
+      </c>
+      <c r="K119" t="s">
+        <v>137</v>
+      </c>
+      <c r="L119" t="s">
+        <v>26</v>
+      </c>
+      <c r="M119" t="s">
+        <v>20</v>
+      </c>
+      <c r="N119" t="s">
+        <v>26</v>
+      </c>
+      <c r="O119" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>166</v>
+      </c>
+      <c r="U119" t="s">
+        <v>26</v>
+      </c>
       <c r="V119" s="20"/>
+      <c r="X119" t="s">
+        <v>167</v>
+      </c>
       <c r="Y119" s="20"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="120" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>149</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>59</v>
+      </c>
+      <c r="D120" t="s">
+        <v>30</v>
+      </c>
+      <c r="E120" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" t="s">
+        <v>164</v>
+      </c>
+      <c r="G120" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" t="s">
+        <v>54</v>
+      </c>
+      <c r="I120" t="s">
+        <v>55</v>
+      </c>
+      <c r="J120" t="s">
+        <v>26</v>
+      </c>
+      <c r="K120" t="s">
+        <v>20</v>
+      </c>
+      <c r="L120" t="s">
+        <v>26</v>
+      </c>
+      <c r="M120" t="s">
+        <v>20</v>
+      </c>
+      <c r="N120" t="s">
+        <v>26</v>
+      </c>
+      <c r="O120" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>168</v>
+      </c>
+      <c r="U120" t="s">
+        <v>26</v>
+      </c>
       <c r="V120" s="20"/>
+      <c r="X120" t="s">
+        <v>167</v>
+      </c>
       <c r="Y120" s="20"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="121" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>150</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>61</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" t="s">
+        <v>20</v>
+      </c>
+      <c r="F121" t="s">
+        <v>165</v>
+      </c>
+      <c r="G121" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121" t="s">
+        <v>26</v>
+      </c>
+      <c r="I121" t="s">
+        <v>20</v>
+      </c>
+      <c r="J121" t="s">
+        <v>26</v>
+      </c>
+      <c r="K121" t="s">
+        <v>20</v>
+      </c>
+      <c r="L121" t="s">
+        <v>22</v>
+      </c>
+      <c r="M121" t="s">
+        <v>23</v>
+      </c>
+      <c r="N121" t="s">
+        <v>26</v>
+      </c>
+      <c r="O121" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>169</v>
+      </c>
+      <c r="U121" t="s">
+        <v>26</v>
+      </c>
       <c r="V121" s="20"/>
+      <c r="X121" t="s">
+        <v>167</v>
+      </c>
       <c r="Y121" s="20"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="122" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>151</v>
+      </c>
+      <c r="B122">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>100</v>
+      </c>
+      <c r="D122" t="s">
+        <v>30</v>
+      </c>
+      <c r="E122" t="s">
+        <v>20</v>
+      </c>
+      <c r="F122" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" t="s">
+        <v>26</v>
+      </c>
+      <c r="I122" t="s">
+        <v>20</v>
+      </c>
+      <c r="J122" t="s">
+        <v>26</v>
+      </c>
+      <c r="K122" t="s">
+        <v>20</v>
+      </c>
+      <c r="L122" t="s">
+        <v>26</v>
+      </c>
+      <c r="M122" t="s">
+        <v>20</v>
+      </c>
+      <c r="N122" t="s">
+        <v>26</v>
+      </c>
+      <c r="O122" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>26</v>
+      </c>
+      <c r="U122" t="s">
+        <v>26</v>
+      </c>
       <c r="V122" s="20"/>
+      <c r="X122" t="s">
+        <v>167</v>
+      </c>
       <c r="Y122" s="20"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="123" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>152</v>
+      </c>
+      <c r="B123">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" t="s">
+        <v>30</v>
+      </c>
+      <c r="E123" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" t="s">
+        <v>26</v>
+      </c>
+      <c r="I123" t="s">
+        <v>20</v>
+      </c>
+      <c r="J123" t="s">
+        <v>26</v>
+      </c>
+      <c r="K123" t="s">
+        <v>20</v>
+      </c>
+      <c r="L123" t="s">
+        <v>26</v>
+      </c>
+      <c r="M123" t="s">
+        <v>20</v>
+      </c>
+      <c r="N123" t="s">
+        <v>26</v>
+      </c>
+      <c r="O123" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>26</v>
+      </c>
+      <c r="U123" t="s">
+        <v>26</v>
+      </c>
       <c r="V123" s="20"/>
+      <c r="X123" t="s">
+        <v>167</v>
+      </c>
       <c r="Y123" s="20"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="124" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>153</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" t="s">
+        <v>20</v>
+      </c>
+      <c r="F124" t="s">
+        <v>166</v>
+      </c>
+      <c r="G124" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" t="s">
+        <v>22</v>
+      </c>
+      <c r="I124" t="s">
+        <v>23</v>
+      </c>
+      <c r="J124" t="s">
+        <v>136</v>
+      </c>
+      <c r="K124" t="s">
+        <v>137</v>
+      </c>
+      <c r="L124" t="s">
+        <v>26</v>
+      </c>
+      <c r="M124" t="s">
+        <v>20</v>
+      </c>
+      <c r="N124" t="s">
+        <v>26</v>
+      </c>
+      <c r="O124" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>170</v>
+      </c>
+      <c r="U124" t="s">
+        <v>26</v>
+      </c>
       <c r="V124" s="20"/>
+      <c r="X124" t="s">
+        <v>171</v>
+      </c>
       <c r="Y124" s="20"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="125" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>154</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>59</v>
+      </c>
+      <c r="D125" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" t="s">
+        <v>168</v>
+      </c>
+      <c r="G125" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" t="s">
+        <v>54</v>
+      </c>
+      <c r="I125" t="s">
+        <v>55</v>
+      </c>
+      <c r="J125" t="s">
+        <v>26</v>
+      </c>
+      <c r="K125" t="s">
+        <v>20</v>
+      </c>
+      <c r="L125" t="s">
+        <v>26</v>
+      </c>
+      <c r="M125" t="s">
+        <v>20</v>
+      </c>
+      <c r="N125" t="s">
+        <v>26</v>
+      </c>
+      <c r="O125" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>172</v>
+      </c>
+      <c r="U125" t="s">
+        <v>26</v>
+      </c>
       <c r="V125" s="20"/>
+      <c r="X125" t="s">
+        <v>171</v>
+      </c>
       <c r="Y125" s="20"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="126" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>155</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>61</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126" t="s">
+        <v>169</v>
+      </c>
+      <c r="G126" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" t="s">
+        <v>26</v>
+      </c>
+      <c r="I126" t="s">
+        <v>20</v>
+      </c>
+      <c r="J126" t="s">
+        <v>26</v>
+      </c>
+      <c r="K126" t="s">
+        <v>20</v>
+      </c>
+      <c r="L126" t="s">
+        <v>22</v>
+      </c>
+      <c r="M126" t="s">
+        <v>23</v>
+      </c>
+      <c r="N126" t="s">
+        <v>26</v>
+      </c>
+      <c r="O126" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>173</v>
+      </c>
+      <c r="U126" t="s">
+        <v>26</v>
+      </c>
       <c r="V126" s="20"/>
+      <c r="X126" t="s">
+        <v>171</v>
+      </c>
       <c r="Y126" s="20"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="127" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>156</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>100</v>
+      </c>
+      <c r="D127" t="s">
+        <v>30</v>
+      </c>
+      <c r="E127" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127" t="s">
+        <v>20</v>
+      </c>
+      <c r="J127" t="s">
+        <v>26</v>
+      </c>
+      <c r="K127" t="s">
+        <v>20</v>
+      </c>
+      <c r="L127" t="s">
+        <v>26</v>
+      </c>
+      <c r="M127" t="s">
+        <v>20</v>
+      </c>
+      <c r="N127" t="s">
+        <v>26</v>
+      </c>
+      <c r="O127" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>26</v>
+      </c>
+      <c r="U127" t="s">
+        <v>26</v>
+      </c>
       <c r="V127" s="20"/>
+      <c r="X127" t="s">
+        <v>171</v>
+      </c>
       <c r="Y127" s="20"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="128" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>157</v>
+      </c>
+      <c r="B128">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" t="s">
+        <v>20</v>
+      </c>
+      <c r="F128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" t="s">
+        <v>26</v>
+      </c>
+      <c r="I128" t="s">
+        <v>20</v>
+      </c>
+      <c r="J128" t="s">
+        <v>26</v>
+      </c>
+      <c r="K128" t="s">
+        <v>20</v>
+      </c>
+      <c r="L128" t="s">
+        <v>26</v>
+      </c>
+      <c r="M128" t="s">
+        <v>20</v>
+      </c>
+      <c r="N128" t="s">
+        <v>26</v>
+      </c>
+      <c r="O128" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>26</v>
+      </c>
+      <c r="U128" t="s">
+        <v>26</v>
+      </c>
       <c r="V128" s="20"/>
+      <c r="X128" t="s">
+        <v>171</v>
+      </c>
       <c r="Y128" s="20"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="129" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>158</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" t="s">
+        <v>170</v>
+      </c>
+      <c r="G129" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" t="s">
+        <v>22</v>
+      </c>
+      <c r="I129" t="s">
+        <v>23</v>
+      </c>
+      <c r="J129" t="s">
+        <v>136</v>
+      </c>
+      <c r="K129" t="s">
+        <v>137</v>
+      </c>
+      <c r="L129" t="s">
+        <v>26</v>
+      </c>
+      <c r="M129" t="s">
+        <v>20</v>
+      </c>
+      <c r="N129" t="s">
+        <v>26</v>
+      </c>
+      <c r="O129" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>174</v>
+      </c>
+      <c r="U129" t="s">
+        <v>26</v>
+      </c>
       <c r="V129" s="20"/>
+      <c r="X129" t="s">
+        <v>175</v>
+      </c>
       <c r="Y129" s="20"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="130" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>159</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>59</v>
+      </c>
+      <c r="D130" t="s">
+        <v>30</v>
+      </c>
+      <c r="E130" t="s">
+        <v>20</v>
+      </c>
+      <c r="F130" t="s">
+        <v>172</v>
+      </c>
+      <c r="G130" t="s">
+        <v>20</v>
+      </c>
+      <c r="H130" t="s">
+        <v>54</v>
+      </c>
+      <c r="I130" t="s">
+        <v>55</v>
+      </c>
+      <c r="J130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K130" t="s">
+        <v>20</v>
+      </c>
+      <c r="L130" t="s">
+        <v>26</v>
+      </c>
+      <c r="M130" t="s">
+        <v>20</v>
+      </c>
+      <c r="N130" t="s">
+        <v>26</v>
+      </c>
+      <c r="O130" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>176</v>
+      </c>
+      <c r="U130" t="s">
+        <v>26</v>
+      </c>
       <c r="V130" s="20"/>
+      <c r="X130" t="s">
+        <v>175</v>
+      </c>
       <c r="Y130" s="20"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="131" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>160</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>61</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" t="s">
+        <v>173</v>
+      </c>
+      <c r="G131" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" t="s">
+        <v>26</v>
+      </c>
+      <c r="I131" t="s">
+        <v>20</v>
+      </c>
+      <c r="J131" t="s">
+        <v>26</v>
+      </c>
+      <c r="K131" t="s">
+        <v>20</v>
+      </c>
+      <c r="L131" t="s">
+        <v>22</v>
+      </c>
+      <c r="M131" t="s">
+        <v>23</v>
+      </c>
+      <c r="N131" t="s">
+        <v>26</v>
+      </c>
+      <c r="O131" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>177</v>
+      </c>
+      <c r="U131" t="s">
+        <v>26</v>
+      </c>
       <c r="V131" s="20"/>
+      <c r="X131" t="s">
+        <v>175</v>
+      </c>
       <c r="Y131" s="20"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="132" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>161</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>100</v>
+      </c>
+      <c r="D132" t="s">
+        <v>30</v>
+      </c>
+      <c r="E132" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" t="s">
+        <v>26</v>
+      </c>
+      <c r="G132" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132" t="s">
+        <v>20</v>
+      </c>
+      <c r="J132" t="s">
+        <v>26</v>
+      </c>
+      <c r="K132" t="s">
+        <v>20</v>
+      </c>
+      <c r="L132" t="s">
+        <v>26</v>
+      </c>
+      <c r="M132" t="s">
+        <v>20</v>
+      </c>
+      <c r="N132" t="s">
+        <v>26</v>
+      </c>
+      <c r="O132" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>26</v>
+      </c>
+      <c r="U132" t="s">
+        <v>26</v>
+      </c>
       <c r="V132" s="20"/>
+      <c r="X132" t="s">
+        <v>175</v>
+      </c>
       <c r="Y132" s="20"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="133" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>162</v>
+      </c>
+      <c r="B133">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>131</v>
+      </c>
+      <c r="D133" t="s">
+        <v>30</v>
+      </c>
+      <c r="E133" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G133" t="s">
+        <v>20</v>
+      </c>
+      <c r="H133" t="s">
+        <v>26</v>
+      </c>
+      <c r="I133" t="s">
+        <v>20</v>
+      </c>
+      <c r="J133" t="s">
+        <v>26</v>
+      </c>
+      <c r="K133" t="s">
+        <v>20</v>
+      </c>
+      <c r="L133" t="s">
+        <v>26</v>
+      </c>
+      <c r="M133" t="s">
+        <v>20</v>
+      </c>
+      <c r="N133" t="s">
+        <v>26</v>
+      </c>
+      <c r="O133" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>26</v>
+      </c>
+      <c r="U133" t="s">
+        <v>26</v>
+      </c>
       <c r="V133" s="20"/>
+      <c r="X133" t="s">
+        <v>175</v>
+      </c>
       <c r="Y133" s="20"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="134" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>173</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134" t="s">
+        <v>174</v>
+      </c>
+      <c r="G134" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" t="s">
+        <v>22</v>
+      </c>
+      <c r="I134" t="s">
+        <v>23</v>
+      </c>
+      <c r="J134" t="s">
+        <v>136</v>
+      </c>
+      <c r="K134" t="s">
+        <v>137</v>
+      </c>
+      <c r="L134" t="s">
+        <v>26</v>
+      </c>
+      <c r="M134" t="s">
+        <v>20</v>
+      </c>
+      <c r="N134" t="s">
+        <v>26</v>
+      </c>
+      <c r="O134" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>178</v>
+      </c>
+      <c r="U134" t="s">
+        <v>26</v>
+      </c>
       <c r="V134" s="20"/>
+      <c r="X134" t="s">
+        <v>179</v>
+      </c>
       <c r="Y134" s="20"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="135" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>174</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" t="s">
+        <v>20</v>
+      </c>
+      <c r="F135" t="s">
+        <v>176</v>
+      </c>
+      <c r="G135" t="s">
+        <v>20</v>
+      </c>
+      <c r="H135" t="s">
+        <v>54</v>
+      </c>
+      <c r="I135" t="s">
+        <v>55</v>
+      </c>
+      <c r="J135" t="s">
+        <v>26</v>
+      </c>
+      <c r="K135" t="s">
+        <v>20</v>
+      </c>
+      <c r="L135" t="s">
+        <v>26</v>
+      </c>
+      <c r="M135" t="s">
+        <v>20</v>
+      </c>
+      <c r="N135" t="s">
+        <v>26</v>
+      </c>
+      <c r="O135" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>180</v>
+      </c>
+      <c r="U135" t="s">
+        <v>26</v>
+      </c>
       <c r="V135" s="20"/>
+      <c r="X135" t="s">
+        <v>179</v>
+      </c>
       <c r="Y135" s="20"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="136" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>175</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>61</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" t="s">
+        <v>20</v>
+      </c>
+      <c r="F136" t="s">
+        <v>177</v>
+      </c>
+      <c r="G136" t="s">
+        <v>20</v>
+      </c>
+      <c r="H136" t="s">
+        <v>26</v>
+      </c>
+      <c r="I136" t="s">
+        <v>20</v>
+      </c>
+      <c r="J136" t="s">
+        <v>26</v>
+      </c>
+      <c r="K136" t="s">
+        <v>20</v>
+      </c>
+      <c r="L136" t="s">
+        <v>22</v>
+      </c>
+      <c r="M136" t="s">
+        <v>23</v>
+      </c>
+      <c r="N136" t="s">
+        <v>26</v>
+      </c>
+      <c r="O136" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>181</v>
+      </c>
+      <c r="U136" t="s">
+        <v>26</v>
+      </c>
       <c r="V136" s="20"/>
+      <c r="X136" t="s">
+        <v>179</v>
+      </c>
       <c r="Y136" s="20"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="137" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>176</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>100</v>
+      </c>
+      <c r="D137" t="s">
+        <v>30</v>
+      </c>
+      <c r="E137" t="s">
+        <v>20</v>
+      </c>
+      <c r="F137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G137" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" t="s">
+        <v>26</v>
+      </c>
+      <c r="I137" t="s">
+        <v>20</v>
+      </c>
+      <c r="J137" t="s">
+        <v>26</v>
+      </c>
+      <c r="K137" t="s">
+        <v>20</v>
+      </c>
+      <c r="L137" t="s">
+        <v>26</v>
+      </c>
+      <c r="M137" t="s">
+        <v>20</v>
+      </c>
+      <c r="N137" t="s">
+        <v>26</v>
+      </c>
+      <c r="O137" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>26</v>
+      </c>
+      <c r="U137" t="s">
+        <v>26</v>
+      </c>
       <c r="V137" s="20"/>
+      <c r="X137" t="s">
+        <v>179</v>
+      </c>
       <c r="Y137" s="20"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V138" s="20"/>
+    <row r="138" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>177</v>
+      </c>
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>131</v>
+      </c>
+      <c r="D138" t="s">
+        <v>30</v>
+      </c>
+      <c r="E138" t="s">
+        <v>20</v>
+      </c>
+      <c r="F138" t="s">
+        <v>26</v>
+      </c>
+      <c r="G138" t="s">
+        <v>20</v>
+      </c>
+      <c r="H138" t="s">
+        <v>26</v>
+      </c>
+      <c r="I138" t="s">
+        <v>20</v>
+      </c>
+      <c r="J138" t="s">
+        <v>26</v>
+      </c>
+      <c r="K138" t="s">
+        <v>20</v>
+      </c>
+      <c r="L138" t="s">
+        <v>26</v>
+      </c>
+      <c r="M138" t="s">
+        <v>20</v>
+      </c>
+      <c r="N138" t="s">
+        <v>26</v>
+      </c>
+      <c r="O138" t="s">
+        <v>20</v>
+      </c>
+      <c r="P138" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>26</v>
+      </c>
+      <c r="R138" t="s">
+        <v>20</v>
+      </c>
+      <c r="U138" t="s">
+        <v>26</v>
+      </c>
+      <c r="V138" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W138" t="s">
+        <v>20</v>
+      </c>
+      <c r="X138" t="s">
+        <v>179</v>
+      </c>
       <c r="Y138" s="20"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="139" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>178</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" t="s">
+        <v>20</v>
+      </c>
+      <c r="F139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G139" t="s">
+        <v>20</v>
+      </c>
+      <c r="H139" t="s">
+        <v>22</v>
+      </c>
+      <c r="I139" t="s">
+        <v>23</v>
+      </c>
+      <c r="J139" t="s">
+        <v>136</v>
+      </c>
+      <c r="K139" t="s">
+        <v>137</v>
+      </c>
+      <c r="L139" t="s">
+        <v>26</v>
+      </c>
+      <c r="M139" t="s">
+        <v>20</v>
+      </c>
+      <c r="N139" t="s">
+        <v>26</v>
+      </c>
+      <c r="O139" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>183</v>
+      </c>
+      <c r="S139" t="s">
+        <v>26</v>
+      </c>
+      <c r="U139" t="s">
+        <v>26</v>
+      </c>
       <c r="V139" s="20"/>
+      <c r="X139" t="s">
+        <v>184</v>
+      </c>
       <c r="Y139" s="20"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="140" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>179</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>59</v>
+      </c>
+      <c r="D140" t="s">
+        <v>30</v>
+      </c>
+      <c r="E140" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" t="s">
+        <v>180</v>
+      </c>
+      <c r="G140" t="s">
+        <v>20</v>
+      </c>
+      <c r="H140" t="s">
+        <v>54</v>
+      </c>
+      <c r="I140" t="s">
+        <v>55</v>
+      </c>
+      <c r="J140" t="s">
+        <v>26</v>
+      </c>
+      <c r="K140" t="s">
+        <v>20</v>
+      </c>
+      <c r="L140" t="s">
+        <v>26</v>
+      </c>
+      <c r="M140" t="s">
+        <v>20</v>
+      </c>
+      <c r="N140" t="s">
+        <v>26</v>
+      </c>
+      <c r="O140" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>185</v>
+      </c>
+      <c r="S140" t="s">
+        <v>26</v>
+      </c>
+      <c r="U140" t="s">
+        <v>26</v>
+      </c>
       <c r="V140" s="20"/>
+      <c r="X140" t="s">
+        <v>184</v>
+      </c>
       <c r="Y140" s="20"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="141" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>180</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>61</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141" t="s">
+        <v>181</v>
+      </c>
+      <c r="G141" t="s">
+        <v>20</v>
+      </c>
+      <c r="H141" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141" t="s">
+        <v>20</v>
+      </c>
+      <c r="J141" t="s">
+        <v>26</v>
+      </c>
+      <c r="K141" t="s">
+        <v>20</v>
+      </c>
+      <c r="L141" t="s">
+        <v>22</v>
+      </c>
+      <c r="M141" t="s">
+        <v>23</v>
+      </c>
+      <c r="N141" t="s">
+        <v>26</v>
+      </c>
+      <c r="O141" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>186</v>
+      </c>
+      <c r="S141" t="s">
+        <v>26</v>
+      </c>
+      <c r="U141" t="s">
+        <v>26</v>
+      </c>
       <c r="V141" s="20"/>
+      <c r="X141" t="s">
+        <v>184</v>
+      </c>
       <c r="Y141" s="20"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="142" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>181</v>
+      </c>
+      <c r="B142">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>100</v>
+      </c>
+      <c r="D142" t="s">
+        <v>30</v>
+      </c>
+      <c r="E142" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142" t="s">
+        <v>20</v>
+      </c>
+      <c r="H142" t="s">
+        <v>26</v>
+      </c>
+      <c r="I142" t="s">
+        <v>20</v>
+      </c>
+      <c r="J142" t="s">
+        <v>26</v>
+      </c>
+      <c r="K142" t="s">
+        <v>20</v>
+      </c>
+      <c r="L142" t="s">
+        <v>26</v>
+      </c>
+      <c r="M142" t="s">
+        <v>20</v>
+      </c>
+      <c r="N142" t="s">
+        <v>26</v>
+      </c>
+      <c r="O142" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>26</v>
+      </c>
+      <c r="S142" t="s">
+        <v>26</v>
+      </c>
+      <c r="U142" t="s">
+        <v>26</v>
+      </c>
       <c r="V142" s="20"/>
+      <c r="X142" t="s">
+        <v>184</v>
+      </c>
       <c r="Y142" s="20"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V143" s="20"/>
+    <row r="143" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>182</v>
+      </c>
+      <c r="B143">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>131</v>
+      </c>
+      <c r="D143" t="s">
+        <v>30</v>
+      </c>
+      <c r="E143" t="s">
+        <v>182</v>
+      </c>
+      <c r="F143" t="s">
+        <v>26</v>
+      </c>
+      <c r="G143" t="s">
+        <v>20</v>
+      </c>
+      <c r="H143" t="s">
+        <v>26</v>
+      </c>
+      <c r="I143" t="s">
+        <v>20</v>
+      </c>
+      <c r="J143" t="s">
+        <v>26</v>
+      </c>
+      <c r="K143" t="s">
+        <v>20</v>
+      </c>
+      <c r="L143" t="s">
+        <v>26</v>
+      </c>
+      <c r="M143" t="s">
+        <v>20</v>
+      </c>
+      <c r="N143" t="s">
+        <v>26</v>
+      </c>
+      <c r="O143" t="s">
+        <v>20</v>
+      </c>
+      <c r="P143" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>26</v>
+      </c>
+      <c r="R143" t="s">
+        <v>20</v>
+      </c>
+      <c r="S143" t="s">
+        <v>26</v>
+      </c>
+      <c r="T143" t="s">
+        <v>20</v>
+      </c>
+      <c r="U143" t="s">
+        <v>26</v>
+      </c>
+      <c r="V143" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W143" t="s">
+        <v>20</v>
+      </c>
+      <c r="X143" t="s">
+        <v>184</v>
+      </c>
       <c r="Y143" s="20"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V144" s="20"/>
+    <row r="144" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>187</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" t="s">
+        <v>20</v>
+      </c>
+      <c r="F144" t="s">
+        <v>183</v>
+      </c>
+      <c r="G144" t="s">
+        <v>20</v>
+      </c>
+      <c r="H144" t="s">
+        <v>22</v>
+      </c>
+      <c r="I144" t="s">
+        <v>23</v>
+      </c>
+      <c r="J144" t="s">
+        <v>136</v>
+      </c>
+      <c r="K144" t="s">
+        <v>137</v>
+      </c>
+      <c r="L144" t="s">
+        <v>26</v>
+      </c>
+      <c r="M144" t="s">
+        <v>20</v>
+      </c>
+      <c r="N144" t="s">
+        <v>26</v>
+      </c>
+      <c r="O144" t="s">
+        <v>20</v>
+      </c>
+      <c r="P144" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>188</v>
+      </c>
+      <c r="R144" t="s">
+        <v>189</v>
+      </c>
+      <c r="S144" t="s">
+        <v>26</v>
+      </c>
+      <c r="U144" t="s">
+        <v>26</v>
+      </c>
+      <c r="V144" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="W144" t="s">
+        <v>191</v>
+      </c>
+      <c r="X144" t="s">
+        <v>192</v>
+      </c>
       <c r="Y144" s="20"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V145" s="20"/>
+    <row r="145" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>188</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>59</v>
+      </c>
+      <c r="D145" t="s">
+        <v>30</v>
+      </c>
+      <c r="E145" t="s">
+        <v>20</v>
+      </c>
+      <c r="F145" t="s">
+        <v>185</v>
+      </c>
+      <c r="G145" t="s">
+        <v>20</v>
+      </c>
+      <c r="H145" t="s">
+        <v>54</v>
+      </c>
+      <c r="I145" t="s">
+        <v>55</v>
+      </c>
+      <c r="J145" t="s">
+        <v>26</v>
+      </c>
+      <c r="K145" t="s">
+        <v>20</v>
+      </c>
+      <c r="L145" t="s">
+        <v>26</v>
+      </c>
+      <c r="M145" t="s">
+        <v>20</v>
+      </c>
+      <c r="N145" t="s">
+        <v>26</v>
+      </c>
+      <c r="O145" t="s">
+        <v>20</v>
+      </c>
+      <c r="P145" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>194</v>
+      </c>
+      <c r="R145" t="s">
+        <v>195</v>
+      </c>
+      <c r="S145" t="s">
+        <v>26</v>
+      </c>
+      <c r="U145" t="s">
+        <v>26</v>
+      </c>
+      <c r="V145" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="W145" t="s">
+        <v>197</v>
+      </c>
+      <c r="X145" t="s">
+        <v>192</v>
+      </c>
       <c r="Y145" s="20"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V146" s="20"/>
+    <row r="146" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>189</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>61</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146" t="s">
+        <v>186</v>
+      </c>
+      <c r="G146" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146" t="s">
+        <v>26</v>
+      </c>
+      <c r="I146" t="s">
+        <v>20</v>
+      </c>
+      <c r="J146" t="s">
+        <v>26</v>
+      </c>
+      <c r="K146" t="s">
+        <v>20</v>
+      </c>
+      <c r="L146" t="s">
+        <v>22</v>
+      </c>
+      <c r="M146" t="s">
+        <v>23</v>
+      </c>
+      <c r="N146" t="s">
+        <v>26</v>
+      </c>
+      <c r="O146" t="s">
+        <v>20</v>
+      </c>
+      <c r="P146" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>198</v>
+      </c>
+      <c r="R146" t="s">
+        <v>199</v>
+      </c>
+      <c r="S146" t="s">
+        <v>26</v>
+      </c>
+      <c r="U146" t="s">
+        <v>26</v>
+      </c>
+      <c r="V146" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="W146" t="s">
+        <v>23</v>
+      </c>
+      <c r="X146" t="s">
+        <v>192</v>
+      </c>
       <c r="Y146" s="20"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V147" s="20"/>
+    <row r="147" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>190</v>
+      </c>
+      <c r="B147">
+        <v>6</v>
+      </c>
+      <c r="C147" t="s">
+        <v>100</v>
+      </c>
+      <c r="D147" t="s">
+        <v>30</v>
+      </c>
+      <c r="E147" t="s">
+        <v>20</v>
+      </c>
+      <c r="F147" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147" t="s">
+        <v>20</v>
+      </c>
+      <c r="H147" t="s">
+        <v>26</v>
+      </c>
+      <c r="I147" t="s">
+        <v>20</v>
+      </c>
+      <c r="J147" t="s">
+        <v>26</v>
+      </c>
+      <c r="K147" t="s">
+        <v>20</v>
+      </c>
+      <c r="L147" t="s">
+        <v>26</v>
+      </c>
+      <c r="M147" t="s">
+        <v>20</v>
+      </c>
+      <c r="N147" t="s">
+        <v>26</v>
+      </c>
+      <c r="O147" t="s">
+        <v>20</v>
+      </c>
+      <c r="P147" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>26</v>
+      </c>
+      <c r="R147" t="s">
+        <v>20</v>
+      </c>
+      <c r="S147" t="s">
+        <v>26</v>
+      </c>
+      <c r="U147" t="s">
+        <v>26</v>
+      </c>
+      <c r="V147" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W147" t="s">
+        <v>20</v>
+      </c>
+      <c r="X147" t="s">
+        <v>192</v>
+      </c>
       <c r="Y147" s="20"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">
-      <c r="V148" s="20"/>
+    <row r="148" ht="15.75" customHeight="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>191</v>
+      </c>
+      <c r="B148">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>131</v>
+      </c>
+      <c r="D148" t="s">
+        <v>30</v>
+      </c>
+      <c r="E148" t="s">
+        <v>182</v>
+      </c>
+      <c r="F148" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" t="s">
+        <v>20</v>
+      </c>
+      <c r="H148" t="s">
+        <v>26</v>
+      </c>
+      <c r="I148" t="s">
+        <v>20</v>
+      </c>
+      <c r="J148" t="s">
+        <v>26</v>
+      </c>
+      <c r="K148" t="s">
+        <v>20</v>
+      </c>
+      <c r="L148" t="s">
+        <v>26</v>
+      </c>
+      <c r="M148" t="s">
+        <v>20</v>
+      </c>
+      <c r="N148" t="s">
+        <v>26</v>
+      </c>
+      <c r="O148" t="s">
+        <v>20</v>
+      </c>
+      <c r="P148" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>26</v>
+      </c>
+      <c r="R148" t="s">
+        <v>20</v>
+      </c>
+      <c r="S148" t="s">
+        <v>26</v>
+      </c>
+      <c r="T148" t="s">
+        <v>20</v>
+      </c>
+      <c r="U148" t="s">
+        <v>26</v>
+      </c>
+      <c r="V148" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W148" t="s">
+        <v>20</v>
+      </c>
+      <c r="X148" t="s">
+        <v>192</v>
+      </c>
       <c r="Y148" s="20"/>
     </row>
     <row r="149" ht="15.75" customHeight="1" spans="22:25" x14ac:dyDescent="0.25">

--- a/controllers/api/reports/new.xlsx
+++ b/controllers/api/reports/new.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
-    <t>9.2.2021</t>
+    <t>12.2.2021</t>
   </si>
   <si>
     <t>սկզբնական</t>

--- a/controllers/api/reports/new.xlsx
+++ b/controllers/api/reports/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
   <si>
     <t>12.2.2021</t>
   </si>
@@ -73,76 +73,103 @@
     <t>կ/գ</t>
   </si>
   <si>
-    <t>1_1</t>
+    <t>Ավազան 2</t>
+  </si>
+  <si>
+    <t>Սիգ</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>12.1000</t>
+  </si>
+  <si>
+    <t>-56</t>
+  </si>
+  <si>
+    <t>1.0000</t>
+  </si>
+  <si>
+    <t>Ավազան 3</t>
   </si>
   <si>
     <t>Իշխան</t>
   </si>
   <si>
-    <t>1420.0000</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>45255.0000</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>636.0000</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>352.0000</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>527.0000</t>
-  </si>
-  <si>
-    <t>27</t>
+    <t>-38</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>54.1784</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>47.3340</t>
+  </si>
+  <si>
+    <t>-106</t>
+  </si>
+  <si>
+    <t>Ավազան 1</t>
+  </si>
+  <si>
+    <t>Թառափ</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10.2000</t>
+  </si>
+  <si>
+    <t>-30</t>
   </si>
   <si>
     <t>2.0000</t>
   </si>
   <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>0.4000</t>
-  </si>
-  <si>
-    <t>52525.0000</t>
-  </si>
-  <si>
-    <t>5545</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>45.0000</t>
+    <t>Ավազան 4</t>
+  </si>
+  <si>
+    <t>21.7080</t>
+  </si>
+  <si>
+    <t>3.4160</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>Ավազան 5</t>
+  </si>
+  <si>
+    <t>10.8360</t>
+  </si>
+  <si>
+    <t>12.0400</t>
   </si>
 </sst>
 </file>
@@ -726,7 +753,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -741,138 +768,273 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>27</v>
       </c>
-      <c r="K5" t="s">
+      <c r="P5" t="s">
         <v>28</v>
       </c>
-      <c r="L5" t="s">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" t="s">
         <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" t="s">
-        <v>38</v>
       </c>
       <c r="W5" s="19"/>
       <c r="Z5" s="19"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" t="s">
         <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V6" t="s">
-        <v>38</v>
       </c>
       <c r="W6" s="19"/>
       <c r="Z6" s="19"/>
     </row>
-    <row r="7" spans="23:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" t="s">
+        <v>44</v>
+      </c>
       <c r="W7" s="19"/>
       <c r="Z7" s="19"/>
     </row>
-    <row r="8" spans="23:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" t="s">
+        <v>44</v>
+      </c>
       <c r="W8" s="19"/>
       <c r="Z8" s="19"/>
     </row>
-    <row r="9" spans="23:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" t="s">
+        <v>29</v>
+      </c>
       <c r="W9" s="19"/>
       <c r="Z9" s="19"/>
     </row>

--- a/controllers/api/reports/new.xlsx
+++ b/controllers/api/reports/new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>12.2.2021</t>
   </si>
@@ -73,37 +73,85 @@
     <t>կ/գ</t>
   </si>
   <si>
+    <t>Ավազան 5</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>19.9740</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>12.0400</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>1.0000</t>
+  </si>
+  <si>
+    <t>Ավազան 4</t>
+  </si>
+  <si>
+    <t>Սիգ</t>
+  </si>
+  <si>
+    <t>21.7080</t>
+  </si>
+  <si>
+    <t>3.4160</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Ավազան 1</t>
+  </si>
+  <si>
+    <t>Թառափ</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10.2000</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
     <t>Ավազան 2</t>
   </si>
   <si>
-    <t>Սիգ</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
     <t>-18</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
     <t>10.8900</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>12.1000</t>
   </si>
   <si>
     <t>-56</t>
   </si>
   <si>
-    <t>1.0000</t>
+    <t>201.0000</t>
   </si>
   <si>
     <t>Ավազան 3</t>
@@ -121,55 +169,10 @@
     <t>54.1784</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>47.3340</t>
   </si>
   <si>
     <t>-106</t>
-  </si>
-  <si>
-    <t>Ավազան 1</t>
-  </si>
-  <si>
-    <t>Թառափ</t>
-  </si>
-  <si>
-    <t>-10</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>10.2000</t>
-  </si>
-  <si>
-    <t>-30</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Ավազան 4</t>
-  </si>
-  <si>
-    <t>21.7080</t>
-  </si>
-  <si>
-    <t>3.4160</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>Ավազան 5</t>
-  </si>
-  <si>
-    <t>10.8360</t>
-  </si>
-  <si>
-    <t>12.0400</t>
   </si>
 </sst>
 </file>
@@ -753,116 +756,113 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>25</v>
       </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" t="s">
-        <v>28</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W5" s="19"/>
       <c r="Z5" s="19"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" t="s">
-        <v>36</v>
-      </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="W6" s="19"/>
       <c r="Z6" s="19"/>
@@ -872,168 +872,171 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" t="s">
-        <v>43</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="W7" s="19"/>
       <c r="Z7" s="19"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W8" s="19"/>
       <c r="Z8" s="19"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
         <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>24</v>
       </c>
       <c r="J9" t="s">
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N9" t="s">
         <v>51</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W9" s="19"/>
       <c r="Z9" s="19"/>
